--- a/database/spreadsheet/client1-PCP.xlsx
+++ b/database/spreadsheet/client1-PCP.xlsx
@@ -89,12 +89,12 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="22.0"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="42.900000000000006"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="46.2"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="59.400000000000006"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="11.549999999999999"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="126.50000000000001"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="138.60000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3338,18 +3338,30 @@
           <t>ATT2778</t>
         </is>
       </c>
-      <c r="C135" s="0"/>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN ATT2778 S&amp;W,TREATMENT TABLE,27X</t>
+        </is>
+      </c>
       <c r="D135" s="0" t="n">
         <v>538.79</v>
       </c>
-      <c r="E135" s="0"/>
+      <c r="E135" s="0" t="n">
+        <v>415.0</v>
+      </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G135" s="0"/>
-      <c r="H135" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006696690</t>
+        </is>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann ATT2778 S&amp;W,TREATMENT TABLE,27X78" * For sales support, quotes and help please call 1-877-463-5818 or email govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="inlineStr">
@@ -3362,18 +3374,30 @@
           <t>1560-65-036</t>
         </is>
       </c>
-      <c r="C136" s="0"/>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>QS Convertible Staircase</t>
+        </is>
+      </c>
       <c r="D136" s="0" t="n">
         <v>2362.82</v>
       </c>
-      <c r="E136" s="0"/>
+      <c r="E136" s="0" t="n">
+        <v>1739.0</v>
+      </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694189</t>
+        </is>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H136" s="0" t="inlineStr">
+        <is>
+          <t>QS Convertible Staircase Hausmann 1560-65-036 Convertible Staircase is ideal for specialized rehab and physical therapy exercises. Its rigid construction allows for a 350 lb weight...</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -3408,18 +3432,30 @@
           <t>6040-709</t>
         </is>
       </c>
-      <c r="C138" s="0"/>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>QS Electric Tilt Table</t>
+        </is>
+      </c>
       <c r="D138" s="0" t="n">
         <v>4269.17</v>
       </c>
-      <c r="E138" s="0"/>
+      <c r="E138" s="0" t="n">
+        <v>2779.0</v>
+      </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G138" s="0"/>
-      <c r="H138" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697540</t>
+        </is>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" s="0" t="inlineStr">
+        <is>
+          <t>QS Electric Tilt Table The Hausmann 6040-709 Power Tilt Table features a heavy duty electrical tilt mechanism and pneumatic hand control operable from either side of the table. Des...</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
@@ -3520,18 +3556,30 @@
           <t>6045-709</t>
         </is>
       </c>
-      <c r="C143" s="0"/>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>BARIATRIC ELECTRIC TILT TABLE</t>
+        </is>
+      </c>
       <c r="D143" s="0" t="n">
         <v>5229.99</v>
       </c>
-      <c r="E143" s="0"/>
+      <c r="E143" s="0" t="n">
+        <v>3715.0</v>
+      </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G143" s="0"/>
-      <c r="H143" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697551</t>
+        </is>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" s="0" t="inlineStr">
+        <is>
+          <t>Electric Tilt Mechanism with heavy-duty motor for up to 500 lb. patients. Tilt indicator displays angle of tilt 0 to 90 . Extra-wide 34" x 77" long top upholstered in 709 Gray viny...</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="inlineStr">
@@ -3542,18 +3590,30 @@
       <c r="B144" s="0" t="n">
         <v>6058</v>
       </c>
-      <c r="C144" s="0"/>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 6058 TILT TABLE</t>
+        </is>
+      </c>
       <c r="D144" s="0" t="n">
         <v>5530.49</v>
       </c>
-      <c r="E144" s="0"/>
+      <c r="E144" s="0" t="n">
+        <v>5418.9</v>
+      </c>
       <c r="F144" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697722</t>
+        </is>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 6058 TILT TABLE * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="inlineStr">
@@ -3566,18 +3626,30 @@
           <t>8248-84-927</t>
         </is>
       </c>
-      <c r="C145" s="0"/>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 8248-84-927 TALL STORAGE CABINE</t>
+        </is>
+      </c>
       <c r="D145" s="0" t="n">
         <v>1964.71</v>
       </c>
-      <c r="E145" s="0"/>
+      <c r="E145" s="0" t="n">
+        <v>1433.0</v>
+      </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G145" s="0"/>
-      <c r="H145" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006700262</t>
+        </is>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 8248-84-927 TALL STORAGE CABINETS * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="inlineStr">
@@ -3590,18 +3662,30 @@
           <t>8154-927</t>
         </is>
       </c>
-      <c r="C146" s="0"/>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 8154-927 TALL STORAGE CABINETS</t>
+        </is>
+      </c>
       <c r="D146" s="0" t="n">
         <v>1036.43</v>
       </c>
-      <c r="E146" s="0"/>
+      <c r="E146" s="0" t="n">
+        <v>836.0</v>
+      </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006700248</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 8154-927 TALL STORAGE CABINETS * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="inlineStr">
@@ -3700,18 +3784,30 @@
       <c r="B151" s="0" t="n">
         <v>1384</v>
       </c>
-      <c r="C151" s="0"/>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>QS Platform Mounted Parallel Bars for...</t>
+        </is>
+      </c>
       <c r="D151" s="0" t="n">
         <v>1932.18</v>
       </c>
-      <c r="E151" s="0"/>
+      <c r="E151" s="0" t="n">
+        <v>1429.0</v>
+      </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000009233181</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>QS Platform Mounted Parallel Bars for Adult and Child, Width and Height Adjustable, 10' Adult Bar Height Range: 29-42 in; Child Bar Height Range: 20-32 in; Adjustable Width Between...</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="inlineStr">
@@ -3832,18 +3928,30 @@
       <c r="B157" s="0" t="n">
         <v>1391</v>
       </c>
-      <c r="C157" s="0"/>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1391 PLATFORM MOUNTED PARALLEL</t>
+        </is>
+      </c>
       <c r="D157" s="0" t="n">
         <v>1371.38</v>
       </c>
-      <c r="E157" s="0"/>
+      <c r="E157" s="0" t="n">
+        <v>999.0</v>
+      </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006696953</t>
+        </is>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H157" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1391 PLATFORM MOUNTED PARALLEL BARS * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="inlineStr">
@@ -3900,18 +4008,30 @@
           <t>1412-57</t>
         </is>
       </c>
-      <c r="C160" s="0"/>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1412-57 MAT PLATFORM</t>
+        </is>
+      </c>
       <c r="D160" s="0" t="n">
         <v>891.92</v>
       </c>
-      <c r="E160" s="0"/>
+      <c r="E160" s="0" t="n">
+        <v>709.0</v>
+      </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G160" s="0"/>
-      <c r="H160" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695015</t>
+        </is>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1412-57 MAT PLATFORM * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="inlineStr">
@@ -3990,18 +4110,30 @@
           <t>1429-57</t>
         </is>
       </c>
-      <c r="C164" s="0"/>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Mat Platform, Electric,...</t>
+        </is>
+      </c>
       <c r="D164" s="0" t="n">
         <v>4713.22</v>
       </c>
-      <c r="E164" s="0"/>
+      <c r="E164" s="0" t="n">
+        <v>3159.0</v>
+      </c>
       <c r="F164" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G164" s="0"/>
-      <c r="H164" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000009233165</t>
+        </is>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Mat Platform, Electric, 1100 lb capacity, 5' x 7' Dimensions: 5 x 7 ft (LxW); Weight Capacity: 1100 lbs Hausmann ProTeam 1429 Hydraulic Lift Platform Tables can electr...</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="inlineStr">
@@ -4014,18 +4146,30 @@
           <t>1429-68</t>
         </is>
       </c>
-      <c r="C165" s="0"/>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Mat Platform, Electric,...</t>
+        </is>
+      </c>
       <c r="D165" s="0" t="n">
         <v>4885.47</v>
       </c>
-      <c r="E165" s="0"/>
+      <c r="E165" s="0" t="n">
+        <v>3279.0</v>
+      </c>
       <c r="F165" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G165" s="0"/>
-      <c r="H165" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000009233166</t>
+        </is>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Mat Platform, Electric, 1100 lb capacity, 6' x 8' Dimensions: 6 x 8 ft (LxW); Weight Capacity: 1100 lbs Hausmann ProTeam 1429 Hydraulic Lift Platform Tables can electr...</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="inlineStr">
@@ -4038,18 +4182,30 @@
           <t>1441-47</t>
         </is>
       </c>
-      <c r="C166" s="0"/>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Hi-Lo Mat Platform, 4' x 7'</t>
+        </is>
+      </c>
       <c r="D166" s="0" t="n">
         <v>4401.24</v>
       </c>
-      <c r="E166" s="0"/>
+      <c r="E166" s="0" t="n">
+        <v>3145.0</v>
+      </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G166" s="0"/>
-      <c r="H166" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000009233167</t>
+        </is>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Hi-Lo Mat Platform, 4' x 7' Dimensions: 4 x 7 ft (LxW); Weight Capacity: 600 lbs Hausmann ProTeam 1441 Economy Hi Lo Platform Tables feature two direct drive synchroni...</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="inlineStr">
@@ -4062,18 +4218,30 @@
           <t>1441-57</t>
         </is>
       </c>
-      <c r="C167" s="0"/>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Hi-Lo Mat Platform, 5' x 7'</t>
+        </is>
+      </c>
       <c r="D167" s="0" t="n">
         <v>4613.69</v>
       </c>
-      <c r="E167" s="0"/>
+      <c r="E167" s="0" t="n">
+        <v>3285.0</v>
+      </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G167" s="0"/>
-      <c r="H167" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000009233168</t>
+        </is>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Hi-Lo Mat Platform, 5' x 7' Dimensions: 5 x 7 ft (LxW); Weight Capacity: 600 lbs Hausmann ProTeam 1441 Economy Hi Lo Platform Tables feature two direct drive synchroni...</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="inlineStr">
@@ -4106,18 +4274,30 @@
       <c r="B169" s="0" t="n">
         <v>1672</v>
       </c>
-      <c r="C169" s="0"/>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1672 POSTURE MIRROR</t>
+        </is>
+      </c>
       <c r="D169" s="0" t="n">
         <v>343.56</v>
       </c>
-      <c r="E169" s="0"/>
+      <c r="E169" s="0" t="n">
+        <v>289.0</v>
+      </c>
       <c r="F169" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006696815</t>
+        </is>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1672 POSTURE MIRROR * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="inlineStr">
@@ -4414,18 +4594,30 @@
       <c r="B183" s="0" t="n">
         <v>8952</v>
       </c>
-      <c r="C183" s="0"/>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 8952 DISC WGT SET,4-2.5LB,8-5LB</t>
+        </is>
+      </c>
       <c r="D183" s="0" t="n">
         <v>229.68</v>
       </c>
-      <c r="E183" s="0"/>
+      <c r="E183" s="0" t="n">
+        <v>169.0</v>
+      </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G183" s="0"/>
-      <c r="H183" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006696999</t>
+        </is>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 8952 DISC WGT SET,4-2.5LB,8-5LB,4-10LB * For sales support, quotes and help please call 1-877-463-5818 or email govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="inlineStr">
@@ -4436,30 +4628,18 @@
       <c r="B184" s="0" t="n">
         <v>439</v>
       </c>
-      <c r="C184" s="0" t="inlineStr">
-        <is>
-          <t>PHYSICIAN SCALE 400 LB</t>
-        </is>
-      </c>
+      <c r="C184" s="0"/>
       <c r="D184" s="0" t="n">
         <v>308.15</v>
       </c>
-      <c r="E184" s="0" t="n">
-        <v>167.99</v>
-      </c>
+      <c r="E184" s="0"/>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693250</t>
-        </is>
-      </c>
-      <c r="G184" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H184" s="0" t="inlineStr">
-        <is>
-          <t>eye level physician scale 400 lb x 4 oz with height rod 10 1/2" x 14 1/2" platform</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G184" s="0"/>
+      <c r="H184" s="0"/>
     </row>
     <row r="185">
       <c r="A185" s="0" t="inlineStr">
@@ -4564,30 +4744,18 @@
       <c r="B188" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="C188" s="0" t="inlineStr">
-        <is>
-          <t>PHYSICIAN SCALE 400 LB</t>
-        </is>
-      </c>
+      <c r="C188" s="0"/>
       <c r="D188" s="0" t="n">
         <v>308.15</v>
       </c>
-      <c r="E188" s="0" t="n">
-        <v>175.36</v>
-      </c>
+      <c r="E188" s="0"/>
       <c r="F188" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693317</t>
-        </is>
-      </c>
-      <c r="G188" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="H188" s="0" t="inlineStr">
-        <is>
-          <t>eye level physician scale 400 lbs x 4 oz/175 kg x 100 g with height rod 10 1/2" x 14 1/2" platform</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
     </row>
     <row r="189">
       <c r="A189" s="0" t="inlineStr">
@@ -4644,30 +4812,18 @@
       <c r="B191" s="0" t="n">
         <v>6437</v>
       </c>
-      <c r="C191" s="0" t="inlineStr">
-        <is>
-          <t>PHYSICIAN SCALE 500 LB</t>
-        </is>
-      </c>
+      <c r="C191" s="0"/>
       <c r="D191" s="0" t="n">
         <v>864.17</v>
       </c>
-      <c r="E191" s="0" t="n">
-        <v>714.99</v>
-      </c>
+      <c r="E191" s="0"/>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693384</t>
-        </is>
-      </c>
-      <c r="G191" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H191" s="0" t="inlineStr">
-        <is>
-          <t>physicians scale eye-level digital 500 lb x .2 lb/ 225 kg x .1 kg platform 10 1/2" x 14 1/2"</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G191" s="0"/>
+      <c r="H191" s="0"/>
     </row>
     <row r="192">
       <c r="A192" s="0" t="inlineStr">
@@ -4736,30 +4892,18 @@
       <c r="B194" s="0" t="n">
         <v>8440</v>
       </c>
-      <c r="C194" s="0" t="inlineStr">
-        <is>
-          <t>DETECTO 8440 DIGITAL BABY AND TODDLER SC</t>
-        </is>
-      </c>
+      <c r="C194" s="0"/>
       <c r="D194" s="0" t="n">
         <v>274.65</v>
       </c>
-      <c r="E194" s="0" t="n">
-        <v>244.28</v>
-      </c>
+      <c r="E194" s="0"/>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693681</t>
-        </is>
-      </c>
-      <c r="G194" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H194" s="0" t="inlineStr">
-        <is>
-          <t>Detecto 8440 Digital Baby and Toddler Scale * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G194" s="0"/>
+      <c r="H194" s="0"/>
     </row>
     <row r="195">
       <c r="A195" s="0" t="inlineStr">
@@ -4770,30 +4914,18 @@
       <c r="B195" s="0" t="n">
         <v>8450</v>
       </c>
-      <c r="C195" s="0" t="inlineStr">
-        <is>
-          <t>DETECTO 8450 DIGITAL BABY SCALE</t>
-        </is>
-      </c>
+      <c r="C195" s="0"/>
       <c r="D195" s="0" t="n">
         <v>425.86</v>
       </c>
-      <c r="E195" s="0" t="n">
-        <v>377.22</v>
-      </c>
+      <c r="E195" s="0"/>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693688</t>
-        </is>
-      </c>
-      <c r="G195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H195" s="0" t="inlineStr">
-        <is>
-          <t>Detecto 8450 Digital Baby Scale * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G195" s="0"/>
+      <c r="H195" s="0"/>
     </row>
     <row r="196">
       <c r="A196" s="0" t="inlineStr">
@@ -4804,30 +4936,18 @@
       <c r="B196" s="0" t="n">
         <v>6745</v>
       </c>
-      <c r="C196" s="0" t="inlineStr">
-        <is>
-          <t>PHYSICIAN SCALE, BABY DG 30 LB</t>
-        </is>
-      </c>
+      <c r="C196" s="0"/>
       <c r="D196" s="0" t="n">
         <v>1345.54</v>
       </c>
-      <c r="E196" s="0" t="n">
-        <v>877.92</v>
-      </c>
+      <c r="E196" s="0"/>
       <c r="F196" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000010409184</t>
-        </is>
-      </c>
-      <c r="G196" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H196" s="0" t="inlineStr">
-        <is>
-          <t>baby scale digital with printer output 30 lb x .1 oz/ 15 kg x .005 kg</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G196" s="0"/>
+      <c r="H196" s="0"/>
     </row>
     <row r="197">
       <c r="A197" s="0" t="inlineStr">
@@ -4864,30 +4984,18 @@
           <t>CR-1000D</t>
         </is>
       </c>
-      <c r="C198" s="0" t="inlineStr">
-        <is>
-          <t>WHEELCHAIR SCALE 1000 LB</t>
-        </is>
-      </c>
+      <c r="C198" s="0"/>
       <c r="D198" s="0" t="n">
         <v>2432.68</v>
       </c>
-      <c r="E198" s="0" t="n">
-        <v>1719.96</v>
-      </c>
+      <c r="E198" s="0"/>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000010410941</t>
-        </is>
-      </c>
-      <c r="G198" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H198" s="0" t="inlineStr">
-        <is>
-          <t>wheelchair scale digital semi portable 1000 lb x .5 lb/ 450 kg x .2 kg platform 32 1/2" x 24" x 4 1/2"</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G198" s="0"/>
+      <c r="H198" s="0"/>
     </row>
     <row r="199">
       <c r="A199" s="0" t="inlineStr">
@@ -4996,18 +5104,30 @@
           <t>P-48</t>
         </is>
       </c>
-      <c r="C203" s="0"/>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>DETECTO P-48 WHITE BAKED EPOXY STEEL STE</t>
+        </is>
+      </c>
       <c r="D203" s="0" t="n">
         <v>233.51</v>
       </c>
-      <c r="E203" s="0"/>
+      <c r="E203" s="0" t="n">
+        <v>134.66</v>
+      </c>
       <c r="F203" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G203" s="0"/>
-      <c r="H203" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694622</t>
+        </is>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H203" s="0" t="inlineStr">
+        <is>
+          <t>Detecto P-48 White Baked Epoxy Steel Step-On Cans * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="inlineStr">
@@ -5044,18 +5164,30 @@
           <t>C-48</t>
         </is>
       </c>
-      <c r="C205" s="0"/>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>DETECTO C-48 STAINLESS STEEL STEP-ON CAN</t>
+        </is>
+      </c>
       <c r="D205" s="0" t="n">
         <v>575.16</v>
       </c>
-      <c r="E205" s="0"/>
+      <c r="E205" s="0" t="n">
+        <v>321.92</v>
+      </c>
       <c r="F205" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G205" s="0"/>
-      <c r="H205" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694693</t>
+        </is>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H205" s="0" t="inlineStr">
+        <is>
+          <t>Detecto C-48 Stainless Steel Step-On Cans * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="inlineStr">
@@ -5104,30 +5236,18 @@
           <t>6800-1045</t>
         </is>
       </c>
-      <c r="C207" s="0" t="inlineStr">
-        <is>
-          <t>AC Adapter for apex and icon scales,...</t>
-        </is>
-      </c>
+      <c r="C207" s="0"/>
       <c r="D207" s="0" t="n">
         <v>62.2</v>
       </c>
-      <c r="E207" s="0" t="n">
-        <v>51.13</v>
-      </c>
+      <c r="E207" s="0"/>
       <c r="F207" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000010408989</t>
-        </is>
-      </c>
-      <c r="G207" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H207" s="0" t="inlineStr">
-        <is>
-          <t>AC Adapter for apex and icon scales, 750 and 758C Digital Weight Indicator UPC=809161136203</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G207" s="0"/>
+      <c r="H207" s="0"/>
     </row>
     <row r="208">
       <c r="A208" s="0" t="inlineStr">
@@ -5138,30 +5258,18 @@
       <c r="B208" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="C208" s="0" t="inlineStr">
-        <is>
-          <t>CHAIR SCALE DG 400 LB</t>
-        </is>
-      </c>
+      <c r="C208" s="0"/>
       <c r="D208" s="0" t="n">
         <v>775.17</v>
       </c>
-      <c r="E208" s="0" t="n">
-        <v>498.0</v>
-      </c>
+      <c r="E208" s="0"/>
       <c r="F208" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693570</t>
-        </is>
-      </c>
-      <c r="G208" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H208" s="0" t="inlineStr">
-        <is>
-          <t>chair scale mechanical 400 lb x 4 oz lift-away arms and foot rests oversized wheels die cast beam</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G208" s="0"/>
+      <c r="H208" s="0"/>
     </row>
     <row r="209">
       <c r="A209" s="0" t="inlineStr">
@@ -5326,30 +5434,18 @@
       <c r="B214" s="0" t="n">
         <v>6550</v>
       </c>
-      <c r="C214" s="0" t="inlineStr">
-        <is>
-          <t>PT BARIATRIC WHEELCHAIR SCALE 800 LB</t>
-        </is>
-      </c>
+      <c r="C214" s="0"/>
       <c r="D214" s="0" t="n">
         <v>2566.66</v>
       </c>
-      <c r="E214" s="0" t="n">
-        <v>1946.97</v>
-      </c>
+      <c r="E214" s="0"/>
       <c r="F214" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006693527</t>
-        </is>
-      </c>
-      <c r="G214" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H214" s="0" t="inlineStr">
-        <is>
-          <t>fold up portable wheelchair scale 800 lb x .2 lb/ 360 kg x .1 kg 28" x 32" platform</t>
-        </is>
-      </c>
+          <t>https://gsaadvantage.gov</t>
+        </is>
+      </c>
+      <c r="G214" s="0"/>
+      <c r="H214" s="0"/>
     </row>
     <row r="215">
       <c r="A215" s="0" t="inlineStr">
@@ -5384,18 +5480,30 @@
           <t>P-100R</t>
         </is>
       </c>
-      <c r="C216" s="0"/>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>STEP-ON CANS RECEPTACLE BAKED EPOXY (RED</t>
+        </is>
+      </c>
       <c r="D216" s="0" t="n">
         <v>299.54</v>
       </c>
-      <c r="E216" s="0"/>
+      <c r="E216" s="0" t="n">
+        <v>176.39</v>
+      </c>
       <c r="F216" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694667</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H216" s="0" t="inlineStr">
+        <is>
+          <t>Named for their rugged toughness, Step-On Cans are perfect for hospitals, doctors offices, patients rooms, and laboratory settings. Equipped with a heavy-duty foot pedal and linkag...</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="inlineStr">
@@ -7326,18 +7434,30 @@
           <t>1425-46</t>
         </is>
       </c>
-      <c r="C297" s="0"/>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>QS Mat Platform, Crank Hydraulic, 4'...</t>
+        </is>
+      </c>
       <c r="D297" s="0" t="n">
         <v>2279.57</v>
       </c>
-      <c r="E297" s="0"/>
+      <c r="E297" s="0" t="n">
+        <v>1377.88</v>
+      </c>
       <c r="F297" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G297" s="0"/>
-      <c r="H297" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695048</t>
+        </is>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H297" s="0" t="inlineStr">
+        <is>
+          <t>QS Mat Platform, Crank Hydraulic, 4' x 6' Hausmann 1425 Crank Hydraulic Mat Platforms are ideal for use in bariatric clinics. Durable construction and sound mechanics provide the 1...</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="inlineStr">
@@ -7350,18 +7470,30 @@
           <t>1425-47</t>
         </is>
       </c>
-      <c r="C298" s="0"/>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>QS Mat Platform, Crank Hydraulic, 4'...</t>
+        </is>
+      </c>
       <c r="D298" s="0" t="n">
         <v>2391.54</v>
       </c>
-      <c r="E298" s="0"/>
+      <c r="E298" s="0" t="n">
+        <v>1445.48</v>
+      </c>
       <c r="F298" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G298" s="0"/>
-      <c r="H298" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695050</t>
+        </is>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H298" s="0" t="inlineStr">
+        <is>
+          <t>QS Mat Platform, Crank Hydraulic, 4' x 7' Hausmann 1425 Crank Hydraulic Mat Platforms are ideal for use in bariatric clinics. Durable construction and sound mechanics provide the 1...</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="inlineStr">
@@ -7374,18 +7506,30 @@
           <t>1425-57</t>
         </is>
       </c>
-      <c r="C299" s="0"/>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1425-57 MAT PLATFORM</t>
+        </is>
+      </c>
       <c r="D299" s="0" t="n">
         <v>2587.72</v>
       </c>
-      <c r="E299" s="0"/>
+      <c r="E299" s="0" t="n">
+        <v>1561.12</v>
+      </c>
       <c r="F299" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G299" s="0"/>
-      <c r="H299" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695055</t>
+        </is>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H299" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1425-57 MAT PLATFORM * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="inlineStr">
@@ -7398,18 +7542,30 @@
           <t>1425-68</t>
         </is>
       </c>
-      <c r="C300" s="0"/>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>QS Mat Platform, Crank Hydraulic, 6'...</t>
+        </is>
+      </c>
       <c r="D300" s="0" t="n">
         <v>2732.23</v>
       </c>
-      <c r="E300" s="0"/>
+      <c r="E300" s="0" t="n">
+        <v>1650.07</v>
+      </c>
       <c r="F300" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G300" s="0"/>
-      <c r="H300" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695064</t>
+        </is>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H300" s="0" t="inlineStr">
+        <is>
+          <t>QS Mat Platform, Crank Hydraulic, 6' x 8' Hausmann 1425 Crank Hydraulic Mat Platforms are ideal for use in bariatric clinics. Durable construction and sound mechanics provide the 1...</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="inlineStr">
@@ -7422,18 +7578,30 @@
           <t>1427-47</t>
         </is>
       </c>
-      <c r="C301" s="0"/>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1427-47 MAT PLATFORM</t>
+        </is>
+      </c>
       <c r="D301" s="0" t="n">
         <v>3706.45</v>
       </c>
-      <c r="E301" s="0"/>
+      <c r="E301" s="0" t="n">
+        <v>2499.0</v>
+      </c>
       <c r="F301" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G301" s="0"/>
-      <c r="H301" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695068</t>
+        </is>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H301" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1427-47 MAT PLATFORM * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="inlineStr">
@@ -7446,18 +7614,30 @@
           <t>1427-57</t>
         </is>
       </c>
-      <c r="C302" s="0"/>
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1427-57 MAT PLATFORM</t>
+        </is>
+      </c>
       <c r="D302" s="0" t="n">
         <v>3880.62</v>
       </c>
-      <c r="E302" s="0"/>
+      <c r="E302" s="0" t="n">
+        <v>2624.0</v>
+      </c>
       <c r="F302" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G302" s="0"/>
-      <c r="H302" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695079</t>
+        </is>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H302" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1427-57 MAT PLATFORM * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="inlineStr">
@@ -7470,18 +7650,30 @@
           <t>1427-68</t>
         </is>
       </c>
-      <c r="C303" s="0"/>
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Mat Platform, Electric,...</t>
+        </is>
+      </c>
       <c r="D303" s="0" t="n">
         <v>4018.43</v>
       </c>
-      <c r="E303" s="0"/>
+      <c r="E303" s="0" t="n">
+        <v>2699.0</v>
+      </c>
       <c r="F303" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G303" s="0"/>
-      <c r="H303" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695084</t>
+        </is>
+      </c>
+      <c r="G303" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H303" s="0" t="inlineStr">
+        <is>
+          <t>QS Bariatric Mat Platform, Electric, 6' x 8' Hausmann 1427 Power Bariatric Mat Platforms are intended for use in bariatric clinics. The Electric Platform's stable lift system will ...</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="inlineStr">
@@ -7582,18 +7774,30 @@
           <t>6020-709</t>
         </is>
       </c>
-      <c r="C308" s="0"/>
+      <c r="C308" s="0" t="inlineStr">
+        <is>
+          <t>QS Tilt Table with Manual Crank</t>
+        </is>
+      </c>
       <c r="D308" s="0" t="n">
         <v>2563.8</v>
       </c>
-      <c r="E308" s="0"/>
+      <c r="E308" s="0" t="n">
+        <v>1899.0</v>
+      </c>
       <c r="F308" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G308" s="0"/>
-      <c r="H308" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697535</t>
+        </is>
+      </c>
+      <c r="G308" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H308" s="0" t="inlineStr">
+        <is>
+          <t>QS Tilt Table with Manual Crank The Hausmann 6020-709 Manual Crank Tilt Table is designed for rehabilitation and physical therapy, providing early mobilization of patients too weak...</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="inlineStr">
@@ -7694,18 +7898,30 @@
           <t>5086-30</t>
         </is>
       </c>
-      <c r="C313" s="0"/>
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>QS Hardwood Transfer Board with Hand...</t>
+        </is>
+      </c>
       <c r="D313" s="0" t="n">
         <v>69.67</v>
       </c>
-      <c r="E313" s="0"/>
+      <c r="E313" s="0" t="n">
+        <v>47.0</v>
+      </c>
       <c r="F313" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G313" s="0"/>
-      <c r="H313" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697670</t>
+        </is>
+      </c>
+      <c r="G313" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H313" s="0" t="inlineStr">
+        <is>
+          <t>QS Hardwood Transfer Board with Hand Cutouts, 300 lb Capacity, 30" x 8" Hausmann Transfer Boards are ideal for transferring patients from wheelchair to bed, chair, or toilet and co...</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="inlineStr">
@@ -7740,18 +7956,30 @@
           <t>5087-30</t>
         </is>
       </c>
-      <c r="C315" s="0"/>
+      <c r="C315" s="0" t="inlineStr">
+        <is>
+          <t>QS Hardwood Transfer Board, 300 lb...</t>
+        </is>
+      </c>
       <c r="D315" s="0" t="n">
         <v>65.08</v>
       </c>
-      <c r="E315" s="0"/>
+      <c r="E315" s="0" t="n">
+        <v>43.0</v>
+      </c>
       <c r="F315" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G315" s="0"/>
-      <c r="H315" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697680</t>
+        </is>
+      </c>
+      <c r="G315" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H315" s="0" t="inlineStr">
+        <is>
+          <t>QS Hardwood Transfer Board, 300 lb Capacity, 30" x 8" Hausmann Transfer Boards are ideal for transferring patients from wheelchair to bed, chair, or toilet and conveniently offer a...</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="inlineStr">
@@ -7852,18 +8080,30 @@
           <t>3002-57</t>
         </is>
       </c>
-      <c r="C320" s="0"/>
+      <c r="C320" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 3002-57 MATS</t>
+        </is>
+      </c>
       <c r="D320" s="0" t="n">
         <v>402.89</v>
       </c>
-      <c r="E320" s="0"/>
+      <c r="E320" s="0" t="n">
+        <v>315.0</v>
+      </c>
       <c r="F320" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G320" s="0"/>
-      <c r="H320" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006697002</t>
+        </is>
+      </c>
+      <c r="G320" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H320" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 3002-57 Mats * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="inlineStr">
@@ -7876,18 +8116,30 @@
           <t>3002-46</t>
         </is>
       </c>
-      <c r="C321" s="0"/>
+      <c r="C321" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 3002-46 MATS</t>
+        </is>
+      </c>
       <c r="D321" s="0" t="n">
         <v>305.29</v>
       </c>
-      <c r="E321" s="0"/>
+      <c r="E321" s="0" t="n">
+        <v>195.0</v>
+      </c>
       <c r="F321" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G321" s="0"/>
-      <c r="H321" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006696989</t>
+        </is>
+      </c>
+      <c r="G321" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H321" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 3002-46 Mats * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="inlineStr">
@@ -7942,18 +8194,30 @@
       <c r="B324" s="0" t="n">
         <v>2153</v>
       </c>
-      <c r="C324" s="0"/>
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 2153 CHOICE LINE STOOL</t>
+        </is>
+      </c>
       <c r="D324" s="0" t="n">
         <v>157.91</v>
       </c>
-      <c r="E324" s="0"/>
+      <c r="E324" s="0" t="n">
+        <v>111.0</v>
+      </c>
       <c r="F324" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G324" s="0"/>
-      <c r="H324" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006692557</t>
+        </is>
+      </c>
+      <c r="G324" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H324" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 2153 Choice Line stool * For sales support, quotes and help please call 1-877-463-5818 or email to govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="inlineStr">
@@ -10378,18 +10642,30 @@
           <t>ME 740</t>
         </is>
       </c>
-      <c r="C432" s="0"/>
+      <c r="C432" s="0" t="inlineStr">
+        <is>
+          <t>SONICATOR 740 (5 CM? 1/3 MHZ)</t>
+        </is>
+      </c>
       <c r="D432" s="0" t="n">
         <v>1515.88</v>
       </c>
-      <c r="E432" s="0"/>
+      <c r="E432" s="0" t="n">
+        <v>1120.58</v>
+      </c>
       <c r="F432" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G432" s="0"/>
-      <c r="H432" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006690105</t>
+        </is>
+      </c>
+      <c r="G432" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H432" s="0" t="inlineStr">
+        <is>
+          <t>Sonicator 740 (5 cm? 1/3 MHz)</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="inlineStr">
@@ -10450,18 +10726,30 @@
           <t>ME 740X</t>
         </is>
       </c>
-      <c r="C435" s="0"/>
+      <c r="C435" s="0" t="inlineStr">
+        <is>
+          <t>METTLER SONICATOR 740-X PORT. ULTRASOUND</t>
+        </is>
+      </c>
       <c r="D435" s="0" t="n">
         <v>2004.91</v>
       </c>
-      <c r="E435" s="0"/>
+      <c r="E435" s="0" t="n">
+        <v>1384.25</v>
+      </c>
       <c r="F435" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G435" s="0"/>
-      <c r="H435" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006690110</t>
+        </is>
+      </c>
+      <c r="G435" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H435" s="0" t="inlineStr">
+        <is>
+          <t>Mettler Sonicator 740-X portable dual frequency (1/3 MHz) ultrasound with 3 applicators</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="inlineStr">
@@ -10642,18 +10930,30 @@
           <t>ME 940</t>
         </is>
       </c>
-      <c r="C443" s="0"/>
+      <c r="C443" s="0" t="inlineStr">
+        <is>
+          <t>METTLER SONICATOR 940 PLUS,4-CHANNEL</t>
+        </is>
+      </c>
       <c r="D443" s="0" t="n">
         <v>4564.87</v>
       </c>
-      <c r="E443" s="0"/>
+      <c r="E443" s="0" t="n">
+        <v>3337.79</v>
+      </c>
       <c r="F443" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G443" s="0"/>
-      <c r="H443" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695450</t>
+        </is>
+      </c>
+      <c r="G443" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H443" s="0" t="inlineStr">
+        <is>
+          <t>Mettler Sonicator 940 Plus, 4-channel with 1&amp;3MHz ultrasound</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="inlineStr">
@@ -10738,18 +11038,30 @@
           <t>ME 610</t>
         </is>
       </c>
-      <c r="C447" s="0"/>
+      <c r="C447" s="0" t="inlineStr">
+        <is>
+          <t>G5 PLUS MASSAGE MACHINES</t>
+        </is>
+      </c>
       <c r="D447" s="0" t="n">
         <v>2124.53</v>
       </c>
-      <c r="E447" s="0"/>
+      <c r="E447" s="0" t="n">
+        <v>2033.17</v>
+      </c>
       <c r="F447" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G447" s="0"/>
-      <c r="H447" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029099927</t>
+        </is>
+      </c>
+      <c r="G447" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H447" s="0" t="inlineStr">
+        <is>
+          <t>G5 Plus massage machines</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="inlineStr">
@@ -10762,18 +11074,30 @@
           <t>ME 600</t>
         </is>
       </c>
-      <c r="C448" s="0"/>
+      <c r="C448" s="0" t="inlineStr">
+        <is>
+          <t>G5 GBM</t>
+        </is>
+      </c>
       <c r="D448" s="0" t="n">
         <v>818.23</v>
       </c>
-      <c r="E448" s="0"/>
+      <c r="E448" s="0" t="n">
+        <v>732.11</v>
+      </c>
       <c r="F448" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G448" s="0"/>
-      <c r="H448" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029101598</t>
+        </is>
+      </c>
+      <c r="G448" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" s="0" t="inlineStr">
+        <is>
+          <t>G5 GBM</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="inlineStr">
@@ -10786,18 +11110,30 @@
           <t>ME 630</t>
         </is>
       </c>
-      <c r="C449" s="0"/>
+      <c r="C449" s="0" t="inlineStr">
+        <is>
+          <t>G5 THERASSIST</t>
+        </is>
+      </c>
       <c r="D449" s="0" t="n">
         <v>2665.24</v>
       </c>
-      <c r="E449" s="0"/>
+      <c r="E449" s="0" t="n">
+        <v>2548.29</v>
+      </c>
       <c r="F449" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G449" s="0"/>
-      <c r="H449" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029101609</t>
+        </is>
+      </c>
+      <c r="G449" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H449" s="0" t="inlineStr">
+        <is>
+          <t>G5 Therassist</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="inlineStr">
@@ -10810,18 +11146,30 @@
           <t>ME 650</t>
         </is>
       </c>
-      <c r="C450" s="0"/>
+      <c r="C450" s="0" t="inlineStr">
+        <is>
+          <t>G5 MODEL GK-3</t>
+        </is>
+      </c>
       <c r="D450" s="0" t="n">
         <v>1756.09</v>
       </c>
-      <c r="E450" s="0"/>
+      <c r="E450" s="0" t="n">
+        <v>1676.93</v>
+      </c>
       <c r="F450" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G450" s="0"/>
-      <c r="H450" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029100572</t>
+        </is>
+      </c>
+      <c r="G450" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H450" s="0" t="inlineStr">
+        <is>
+          <t>G5 Model GK-3</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="inlineStr">
@@ -10834,18 +11182,30 @@
           <t>ME 660</t>
         </is>
       </c>
-      <c r="C451" s="0"/>
+      <c r="C451" s="0" t="inlineStr">
+        <is>
+          <t>G5 PROPOWER</t>
+        </is>
+      </c>
       <c r="D451" s="0" t="n">
         <v>569.42</v>
       </c>
-      <c r="E451" s="0"/>
+      <c r="E451" s="0" t="n">
+        <v>548.44</v>
+      </c>
       <c r="F451" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G451" s="0"/>
-      <c r="H451" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029101628</t>
+        </is>
+      </c>
+      <c r="G451" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H451" s="0" t="inlineStr">
+        <is>
+          <t>G5 ProPower</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="inlineStr">
@@ -10906,18 +11266,30 @@
           <t>ME 4000</t>
         </is>
       </c>
-      <c r="C454" s="0"/>
+      <c r="C454" s="0" t="inlineStr">
+        <is>
+          <t>MTD 4000 TRACTION HEAD UNIT</t>
+        </is>
+      </c>
       <c r="D454" s="0" t="n">
         <v>3106.41</v>
       </c>
-      <c r="E454" s="0"/>
+      <c r="E454" s="0" t="n">
+        <v>2772.96</v>
+      </c>
       <c r="F454" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G454" s="0"/>
-      <c r="H454" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029098405</t>
+        </is>
+      </c>
+      <c r="G454" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H454" s="0" t="inlineStr">
+        <is>
+          <t>MTD 4000 Traction Head Unit</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="inlineStr">
@@ -10930,18 +11302,30 @@
           <t>ME 620</t>
         </is>
       </c>
-      <c r="C455" s="0"/>
+      <c r="C455" s="0" t="inlineStr">
+        <is>
+          <t>G5 GEMINI</t>
+        </is>
+      </c>
       <c r="D455" s="0" t="n">
         <v>8625.42</v>
       </c>
-      <c r="E455" s="0"/>
+      <c r="E455" s="0" t="n">
+        <v>7699.55</v>
+      </c>
       <c r="F455" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G455" s="0"/>
-      <c r="H455" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029099912</t>
+        </is>
+      </c>
+      <c r="G455" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H455" s="0" t="inlineStr">
+        <is>
+          <t>G5 Gemini</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="inlineStr">
@@ -11002,18 +11386,30 @@
           <t>ME 718B</t>
         </is>
       </c>
-      <c r="C458" s="0"/>
+      <c r="C458" s="0" t="inlineStr">
+        <is>
+          <t>SONICATOR 718, PORTABLE WITH BATTERY (5.</t>
+        </is>
+      </c>
       <c r="D458" s="0" t="n">
         <v>2163.77</v>
       </c>
-      <c r="E458" s="0"/>
+      <c r="E458" s="0" t="n">
+        <v>1931.51</v>
+      </c>
       <c r="F458" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G458" s="0"/>
-      <c r="H458" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029097008</t>
+        </is>
+      </c>
+      <c r="G458" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H458" s="0" t="inlineStr">
+        <is>
+          <t>Sonicator 718, portable with battery (5.5 cm?, 1 MHz)</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="inlineStr">
@@ -11242,18 +11638,30 @@
           <t>ME 240</t>
         </is>
       </c>
-      <c r="C468" s="0"/>
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>SYS*STIM 240 WITH M WHEEL (2-CH STIM WIT</t>
+        </is>
+      </c>
       <c r="D468" s="0" t="n">
         <v>3039.43</v>
       </c>
-      <c r="E468" s="0"/>
+      <c r="E468" s="0" t="n">
+        <v>2713.17</v>
+      </c>
       <c r="F468" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G468" s="0"/>
-      <c r="H468" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029102083</t>
+        </is>
+      </c>
+      <c r="G468" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H468" s="0" t="inlineStr">
+        <is>
+          <t>Sys*Stim 240 with M Wheel (2-ch stim with optional laser)</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="inlineStr">
@@ -11290,18 +11698,30 @@
           <t>ME 920</t>
         </is>
       </c>
-      <c r="C470" s="0"/>
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>SONICATOR PLUS 920, 2-CHANNEL COMB. UNIT</t>
+        </is>
+      </c>
       <c r="D470" s="0" t="n">
         <v>4102.64</v>
       </c>
-      <c r="E470" s="0"/>
+      <c r="E470" s="0" t="n">
+        <v>3662.26</v>
+      </c>
       <c r="F470" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G470" s="0"/>
-      <c r="H470" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029101616</t>
+        </is>
+      </c>
+      <c r="G470" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" s="0" t="inlineStr">
+        <is>
+          <t>Sonicator Plus 920, 2-channel comb. Unit, touch screen</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="inlineStr">
@@ -11314,18 +11734,30 @@
           <t>ME 8000</t>
         </is>
       </c>
-      <c r="C471" s="0"/>
+      <c r="C471" s="0" t="inlineStr">
+        <is>
+          <t>CPM 8000 (CONTINUOUS PASSIVE MOTION)</t>
+        </is>
+      </c>
       <c r="D471" s="0" t="n">
         <v>2950.42</v>
       </c>
-      <c r="E471" s="0"/>
+      <c r="E471" s="0" t="n">
+        <v>2633.72</v>
+      </c>
       <c r="F471" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G471" s="0"/>
-      <c r="H471" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029097012</t>
+        </is>
+      </c>
+      <c r="G471" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H471" s="0" t="inlineStr">
+        <is>
+          <t>CPM 8000 (Continuous Passive Motion)</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="inlineStr">
@@ -11338,18 +11770,30 @@
           <t>ME 8100</t>
         </is>
       </c>
-      <c r="C472" s="0"/>
+      <c r="C472" s="0" t="inlineStr">
+        <is>
+          <t>SPINE GYM CORE EXERCISER</t>
+        </is>
+      </c>
       <c r="D472" s="0" t="n">
         <v>378.01</v>
       </c>
-      <c r="E472" s="0"/>
+      <c r="E472" s="0" t="n">
+        <v>337.44</v>
+      </c>
       <c r="F472" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G472" s="0"/>
-      <c r="H472" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000029102822</t>
+        </is>
+      </c>
+      <c r="G472" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H472" s="0" t="inlineStr">
+        <is>
+          <t>Spine Gym core exerciser</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="inlineStr">
@@ -11446,18 +11890,30 @@
           <t>DDM325</t>
         </is>
       </c>
-      <c r="C476" s="0"/>
+      <c r="C476" s="0" t="inlineStr">
+        <is>
+          <t>DRUG INFUSION ELECTRODES 10 PCS.</t>
+        </is>
+      </c>
       <c r="D476" s="0" t="n">
         <v>37.33</v>
       </c>
-      <c r="E476" s="0"/>
+      <c r="E476" s="0" t="n">
+        <v>46.23</v>
+      </c>
       <c r="F476" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G476" s="0"/>
-      <c r="H476" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000022080834</t>
+        </is>
+      </c>
+      <c r="G476" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H476" s="0" t="inlineStr">
+        <is>
+          <t>Drug Infusion / 2.5cc / 1 buffer / 2 alcohol swabs (10pcs.) / Med. Square</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="inlineStr">
@@ -11470,18 +11926,30 @@
           <t>DDL350</t>
         </is>
       </c>
-      <c r="C477" s="0"/>
+      <c r="C477" s="0" t="inlineStr">
+        <is>
+          <t>DRUG INFUSION ELECTRODES 10 PCS.</t>
+        </is>
+      </c>
       <c r="D477" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E477" s="0"/>
+      <c r="E477" s="0" t="n">
+        <v>47.24</v>
+      </c>
       <c r="F477" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G477" s="0"/>
-      <c r="H477" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000022080818</t>
+        </is>
+      </c>
+      <c r="G477" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H477" s="0" t="inlineStr">
+        <is>
+          <t>Drug Infusion / 4.0cc / 1 buffer / 2 alcohol swabs (10pcs.) / Lrg Square</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="inlineStr">
@@ -11494,18 +11962,30 @@
           <t>DDB375</t>
         </is>
       </c>
-      <c r="C478" s="0"/>
+      <c r="C478" s="0" t="inlineStr">
+        <is>
+          <t>DRUG INFUSION ELECTRODES 10 PCS.</t>
+        </is>
+      </c>
       <c r="D478" s="0" t="n">
         <v>37.33</v>
       </c>
-      <c r="E478" s="0"/>
+      <c r="E478" s="0" t="n">
+        <v>46.23</v>
+      </c>
       <c r="F478" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G478" s="0"/>
-      <c r="H478" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000022080867</t>
+        </is>
+      </c>
+      <c r="G478" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H478" s="0" t="inlineStr">
+        <is>
+          <t>Drug Infusion / 2.0cc / 1 buffer / 2 alcohol swabs (10pcs.) / Butterfly</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="inlineStr">
@@ -12578,18 +13058,30 @@
       <c r="B524" s="0" t="n">
         <v>7155</v>
       </c>
-      <c r="C524" s="0"/>
+      <c r="C524" s="0" t="inlineStr">
+        <is>
+          <t>FLEETWOOD COUCH</t>
+        </is>
+      </c>
       <c r="D524" s="0" t="n">
         <v>743.59</v>
       </c>
-      <c r="E524" s="0"/>
+      <c r="E524" s="0" t="n">
+        <v>579.0</v>
+      </c>
       <c r="F524" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G524" s="0"/>
-      <c r="H524" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695751</t>
+        </is>
+      </c>
+      <c r="G524" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H524" s="0" t="inlineStr">
+        <is>
+          <t>Weight Capacity: 325 lbs. Green Line. Wood has no added urea-formaldehyde for safer indoor air quality. PVC-free construction. (10) position, 0-45 adjustable headrest. 2" High-Dens...</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="inlineStr">
@@ -12624,18 +13116,30 @@
           <t>4043-030G</t>
         </is>
       </c>
-      <c r="C526" s="0"/>
+      <c r="C526" s="0" t="inlineStr">
+        <is>
+          <t>TABLE, CABINET, 72" X 30", GREEN-LINE</t>
+        </is>
+      </c>
       <c r="D526" s="0" t="n">
         <v>1268.02</v>
       </c>
-      <c r="E526" s="0"/>
+      <c r="E526" s="0" t="n">
+        <v>909.0</v>
+      </c>
       <c r="F526" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G526" s="0"/>
-      <c r="H526" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006696119</t>
+        </is>
+      </c>
+      <c r="G526" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H526" s="0" t="inlineStr">
+        <is>
+          <t>400 lbs. weight capacity. All Green-Line wood has no added urea-formaldehyde and exceeds CARB I and II standards. All urethane fabric is CAL 01350 compliant. PVC-free construction....</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="inlineStr">
@@ -12736,18 +13240,30 @@
           <t>1412-68</t>
         </is>
       </c>
-      <c r="C531" s="0"/>
+      <c r="C531" s="0" t="inlineStr">
+        <is>
+          <t>Mat Platform, Upholstered, 6' x 8'</t>
+        </is>
+      </c>
       <c r="D531" s="0" t="n">
         <v>1045.05</v>
       </c>
-      <c r="E531" s="0"/>
+      <c r="E531" s="0" t="n">
+        <v>849.0</v>
+      </c>
       <c r="F531" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G531" s="0"/>
-      <c r="H531" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006695019</t>
+        </is>
+      </c>
+      <c r="G531" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H531" s="0" t="inlineStr">
+        <is>
+          <t>Mat Platform, Upholstered, 6' x 8' The Hausmann 1412 Upholstered Mat Platform is ideal for therapy clinics in need of a durable, high weight capacity platform to easily accommodate...</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="inlineStr">
@@ -12760,18 +13276,30 @@
           <t>1440-46</t>
         </is>
       </c>
-      <c r="C532" s="0"/>
+      <c r="C532" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1440-46 MAT PLATFORM,POWERMATIC</t>
+        </is>
+      </c>
       <c r="D532" s="0" t="n">
         <v>5138.12</v>
       </c>
-      <c r="E532" s="0"/>
+      <c r="E532" s="0" t="n">
+        <v>3579.0</v>
+      </c>
       <c r="F532" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G532" s="0"/>
-      <c r="H532" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694161</t>
+        </is>
+      </c>
+      <c r="G532" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H532" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1440-46 MAT PLATFORM,POWERMATIC,4'X6' * For sales support, quotes and help please call 1-877-463-5818 or email govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="inlineStr">
@@ -12784,18 +13312,30 @@
           <t>1440-47</t>
         </is>
       </c>
-      <c r="C533" s="0"/>
+      <c r="C533" s="0" t="inlineStr">
+        <is>
+          <t>HAUSMANN 1440-47 MAT PLATFORM,POWERMATIC</t>
+        </is>
+      </c>
       <c r="D533" s="0" t="n">
         <v>5308.46</v>
       </c>
-      <c r="E533" s="0"/>
+      <c r="E533" s="0" t="n">
+        <v>3719.0</v>
+      </c>
       <c r="F533" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G533" s="0"/>
-      <c r="H533" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694162</t>
+        </is>
+      </c>
+      <c r="G533" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H533" s="0" t="inlineStr">
+        <is>
+          <t>Hausmann 1440-47 MAT PLATFORM,POWERMATIC,4'X7' * For sales support, quotes and help please call 1-877-463-5818 or email govteam@4mdmedical.com or visit www.4mdmedical.com</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="inlineStr">
@@ -12808,18 +13348,30 @@
           <t>1440-57</t>
         </is>
       </c>
-      <c r="C534" s="0"/>
+      <c r="C534" s="0" t="inlineStr">
+        <is>
+          <t>Powermatic Mat Platform, 5' x 7'</t>
+        </is>
+      </c>
       <c r="D534" s="0" t="n">
         <v>5514.22</v>
       </c>
-      <c r="E534" s="0"/>
+      <c r="E534" s="0" t="n">
+        <v>3855.0</v>
+      </c>
       <c r="F534" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G534" s="0"/>
-      <c r="H534" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694163</t>
+        </is>
+      </c>
+      <c r="G534" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H534" s="0" t="inlineStr">
+        <is>
+          <t>Powermatic Mat Platform, 5' x 7' 7 x 5 ft (LxW) The Hausmann 1440 Powermatic Mat Platform is ideal for sports therapy and rehab clinics in need of a highly functional, rigid mat pl...</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="inlineStr">
@@ -12832,18 +13384,30 @@
           <t>1440-68</t>
         </is>
       </c>
-      <c r="C535" s="0"/>
+      <c r="C535" s="0" t="inlineStr">
+        <is>
+          <t>Powermatic Mat Platform, 6' x 8'</t>
+        </is>
+      </c>
       <c r="D535" s="0" t="n">
         <v>5836.72</v>
       </c>
-      <c r="E535" s="0"/>
+      <c r="E535" s="0" t="n">
+        <v>4089.0</v>
+      </c>
       <c r="F535" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G535" s="0"/>
-      <c r="H535" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000006694164</t>
+        </is>
+      </c>
+      <c r="G535" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H535" s="0" t="inlineStr">
+        <is>
+          <t>Powermatic Mat Platform, 6' x 8' 8 x 6 ft (LxW) The Hausmann 1440 Powermatic Mat Platform is ideal for sports therapy and rehab clinics in need of a highly functional, rigid mat pl...</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="inlineStr">
@@ -23196,18 +23760,30 @@
           <t>10-0720</t>
         </is>
       </c>
-      <c r="C968" s="0"/>
+      <c r="C968" s="0" t="inlineStr">
+        <is>
+          <t>CANDO CHAIR CYCLE PEDAL EXERCISER</t>
+        </is>
+      </c>
       <c r="D968" s="0" t="n">
         <v>191.4</v>
       </c>
-      <c r="E968" s="0"/>
+      <c r="E968" s="0" t="n">
+        <v>139.73</v>
+      </c>
       <c r="F968" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G968" s="0"/>
-      <c r="H968" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994966</t>
+        </is>
+      </c>
+      <c r="G968" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H968" s="0" t="inlineStr">
+        <is>
+          <t>Cando chair cycle pedal exerciser. Chair cycle provides an exercise alternative for individuals who cannot sit safely on a stationary bike. Helps restore muscle strength and coordi...</t>
+        </is>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="inlineStr">
@@ -23220,18 +23796,30 @@
           <t>10-0722</t>
         </is>
       </c>
-      <c r="C969" s="0"/>
+      <c r="C969" s="0" t="inlineStr">
+        <is>
+          <t>CANDO CHAIR CYCLE PEDAL EXER W/AD. PEDAL</t>
+        </is>
+      </c>
       <c r="D969" s="0" t="n">
         <v>334.94</v>
       </c>
-      <c r="E969" s="0"/>
+      <c r="E969" s="0" t="n">
+        <v>237.42</v>
+      </c>
       <c r="F969" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G969" s="0"/>
-      <c r="H969" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000044150745</t>
+        </is>
+      </c>
+      <c r="G969" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H969" s="0" t="inlineStr">
+        <is>
+          <t>Cando deluxe chair cycle pedal exerciser w/adjustable pedals. Chair cycle provides an exercise alternative for individuals who cannot sit safely on a stationary bike. Helps restore...</t>
+        </is>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="inlineStr">
@@ -23244,18 +23832,30 @@
           <t>10-0724</t>
         </is>
       </c>
-      <c r="C970" s="0"/>
+      <c r="C970" s="0" t="inlineStr">
+        <is>
+          <t>UPPER EXTREMITY EXER.KIT FOR CANDO PEDAL</t>
+        </is>
+      </c>
       <c r="D970" s="0" t="n">
         <v>110.05</v>
       </c>
-      <c r="E970" s="0"/>
+      <c r="E970" s="0" t="n">
+        <v>88.18</v>
+      </c>
       <c r="F970" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G970" s="0"/>
-      <c r="H970" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994096</t>
+        </is>
+      </c>
+      <c r="G970" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H970" s="0" t="inlineStr">
+        <is>
+          <t>upper extremity exercise kit for deluxe Cando pedal exerciser. Chair cycle provides an exercise alternative for individuals who cannot sit safely on a stationary bike. Helps restor...</t>
+        </is>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="inlineStr">
@@ -23268,18 +23868,30 @@
           <t>10-0725</t>
         </is>
       </c>
-      <c r="C971" s="0"/>
+      <c r="C971" s="0" t="inlineStr">
+        <is>
+          <t>LONG LEG BRACE KIT FOR CANDO PEDAL EXER.</t>
+        </is>
+      </c>
       <c r="D971" s="0" t="n">
         <v>124.41</v>
       </c>
-      <c r="E971" s="0"/>
+      <c r="E971" s="0" t="n">
+        <v>99.49</v>
+      </c>
       <c r="F971" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G971" s="0"/>
-      <c r="H971" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993466</t>
+        </is>
+      </c>
+      <c r="G971" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H971" s="0" t="inlineStr">
+        <is>
+          <t>long leg brace kit for deluxe Cando pedal exerciser. Chair cycle provides an exercise alternative for individuals who cannot sit safely on a stationary bike. Helps restore muscle s...</t>
+        </is>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="inlineStr">
@@ -23580,18 +24192,30 @@
           <t>10-3112</t>
         </is>
       </c>
-      <c r="C984" s="0"/>
+      <c r="C984" s="0" t="inlineStr">
+        <is>
+          <t>ADJUSTABLE ANGLE REBOUNDER, CIRCULAR,BLK</t>
+        </is>
+      </c>
       <c r="D984" s="0" t="n">
         <v>382.8</v>
       </c>
-      <c r="E984" s="0"/>
+      <c r="E984" s="0" t="n">
+        <v>323.51</v>
+      </c>
       <c r="F984" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G984" s="0"/>
-      <c r="H984" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553438</t>
+        </is>
+      </c>
+      <c r="G984" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H984" s="0" t="inlineStr">
+        <is>
+          <t>Adjustable Angle Rebounder for Plyometric Balls Circular Back. The adjustable angle rebounder can be used as a plyometric ball return or as a trampoline.</t>
+        </is>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="inlineStr">
@@ -23604,18 +24228,30 @@
           <t>10-3110</t>
         </is>
       </c>
-      <c r="C985" s="0"/>
+      <c r="C985" s="0" t="inlineStr">
+        <is>
+          <t>ADJUSTABLE ANGLE REBOUNDER</t>
+        </is>
+      </c>
       <c r="D985" s="0" t="n">
         <v>430.65</v>
       </c>
-      <c r="E985" s="0"/>
+      <c r="E985" s="0" t="n">
+        <v>397.96</v>
+      </c>
       <c r="F985" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G985" s="0"/>
-      <c r="H985" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555045</t>
+        </is>
+      </c>
+      <c r="G985" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H985" s="0" t="inlineStr">
+        <is>
+          <t>Adjustable Angle Rebounder for Plyometric Balls Rectangular Back. The adjustable angle rebounder can be used as a plyometric ball return or as a trampoline.</t>
+        </is>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="inlineStr">
@@ -23628,18 +24264,30 @@
           <t>10-3132</t>
         </is>
       </c>
-      <c r="C986" s="0"/>
+      <c r="C986" s="0" t="inlineStr">
+        <is>
+          <t>RECTANGULAR REBOUNDER PKG W/5 BALL SET</t>
+        </is>
+      </c>
       <c r="D986" s="0" t="n">
         <v>547.88</v>
       </c>
-      <c r="E986" s="0"/>
+      <c r="E986" s="0" t="n">
+        <v>504.75</v>
+      </c>
       <c r="F986" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G986" s="0"/>
-      <c r="H986" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000044150746</t>
+        </is>
+      </c>
+      <c r="G986" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H986" s="0" t="inlineStr">
+        <is>
+          <t>rectangular rebounder package, 5 ball set - 2,4,6,11,15 LB . The adjustable angle rebounder can be used as a plyometric ball return or as a trampoline.</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="inlineStr">
@@ -23652,18 +24300,30 @@
           <t>10-3136</t>
         </is>
       </c>
-      <c r="C987" s="0"/>
+      <c r="C987" s="0" t="inlineStr">
+        <is>
+          <t>ROUND REBOUNDER PKG W/5 BALL SET</t>
+        </is>
+      </c>
       <c r="D987" s="0" t="n">
         <v>502.42</v>
       </c>
-      <c r="E987" s="0"/>
+      <c r="E987" s="0" t="n">
+        <v>422.43</v>
+      </c>
       <c r="F987" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G987" s="0"/>
-      <c r="H987" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553657</t>
+        </is>
+      </c>
+      <c r="G987" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H987" s="0" t="inlineStr">
+        <is>
+          <t>Round rebounder package, 5-ball set ,2,4,7,11,15 LB balls. The adjustable angle rebounder can be used as a plyometric ball return or as a trampoline.</t>
+        </is>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="inlineStr">
@@ -23676,18 +24336,30 @@
           <t>10-3170</t>
         </is>
       </c>
-      <c r="C988" s="0"/>
+      <c r="C988" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,1 LB</t>
+        </is>
+      </c>
       <c r="D988" s="0" t="n">
         <v>11.96</v>
       </c>
-      <c r="E988" s="0"/>
+      <c r="E988" s="0" t="n">
+        <v>9.04</v>
+      </c>
       <c r="F988" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G988" s="0"/>
-      <c r="H988" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555963</t>
+        </is>
+      </c>
+      <c r="G988" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H988" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 1 pound (rebounder ball) tan. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will not ...</t>
+        </is>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="inlineStr">
@@ -23700,18 +24372,30 @@
           <t>10-3171</t>
         </is>
       </c>
-      <c r="C989" s="0"/>
+      <c r="C989" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,2 LB</t>
+        </is>
+      </c>
       <c r="D989" s="0" t="n">
         <v>14.35</v>
       </c>
-      <c r="E989" s="0"/>
+      <c r="E989" s="0" t="n">
+        <v>10.84</v>
+      </c>
       <c r="F989" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G989" s="0"/>
-      <c r="H989" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556606</t>
+        </is>
+      </c>
+      <c r="G989" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H989" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 2 pound (rebounder ball) yellow. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will n...</t>
+        </is>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="inlineStr">
@@ -23724,18 +24408,30 @@
           <t>10-3172</t>
         </is>
       </c>
-      <c r="C990" s="0"/>
+      <c r="C990" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,4 LB</t>
+        </is>
+      </c>
       <c r="D990" s="0" t="n">
         <v>19.14</v>
       </c>
-      <c r="E990" s="0"/>
+      <c r="E990" s="0" t="n">
+        <v>14.46</v>
+      </c>
       <c r="F990" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G990" s="0"/>
-      <c r="H990" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555964</t>
+        </is>
+      </c>
+      <c r="G990" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H990" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 4 pound (rebounder ball) red. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will not ...</t>
+        </is>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="inlineStr">
@@ -23748,18 +24444,30 @@
           <t>10-3173</t>
         </is>
       </c>
-      <c r="C991" s="0"/>
+      <c r="C991" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,7 LB</t>
+        </is>
+      </c>
       <c r="D991" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E991" s="0"/>
+      <c r="E991" s="0" t="n">
+        <v>21.7</v>
+      </c>
       <c r="F991" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G991" s="0"/>
-      <c r="H991" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555453</t>
+        </is>
+      </c>
+      <c r="G991" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H991" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 7 pound (rebounder type) green. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will no...</t>
+        </is>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="inlineStr">
@@ -23772,18 +24480,30 @@
           <t>10-3174</t>
         </is>
       </c>
-      <c r="C992" s="0"/>
+      <c r="C992" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,11 LB</t>
+        </is>
+      </c>
       <c r="D992" s="0" t="n">
         <v>40.67</v>
       </c>
-      <c r="E992" s="0"/>
+      <c r="E992" s="0" t="n">
+        <v>30.74</v>
+      </c>
       <c r="F992" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G992" s="0"/>
-      <c r="H992" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556607</t>
+        </is>
+      </c>
+      <c r="G992" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H992" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 11 pound (rebounder type_ blue. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will no...</t>
+        </is>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="inlineStr">
@@ -23820,18 +24540,30 @@
           <t>10-3177</t>
         </is>
       </c>
-      <c r="C994" s="0"/>
+      <c r="C994" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,20 LB</t>
+        </is>
+      </c>
       <c r="D994" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E994" s="0"/>
+      <c r="E994" s="0" t="n">
+        <v>54.26</v>
+      </c>
       <c r="F994" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G994" s="0"/>
-      <c r="H994" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557509</t>
+        </is>
+      </c>
+      <c r="G994" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H994" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 20 pound</t>
+        </is>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="inlineStr">
@@ -23844,18 +24576,30 @@
           <t>10-3178</t>
         </is>
       </c>
-      <c r="C995" s="0"/>
+      <c r="C995" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PT SOFT MEDICINE BALL,30 LB</t>
+        </is>
+      </c>
       <c r="D995" s="0" t="n">
         <v>90.91</v>
       </c>
-      <c r="E995" s="0"/>
+      <c r="E995" s="0" t="n">
+        <v>90.86</v>
+      </c>
       <c r="F995" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G995" s="0"/>
-      <c r="H995" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555965</t>
+        </is>
+      </c>
+      <c r="G995" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H995" s="0" t="inlineStr">
+        <is>
+          <t>Cando non-bounce plyoball, 30 pound</t>
+        </is>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="inlineStr">
@@ -23868,18 +24612,30 @@
           <t>01-8010</t>
         </is>
       </c>
-      <c r="C996" s="0"/>
+      <c r="C996" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HVY. DUTY PEDAL EXER.R (10-0717)</t>
+        </is>
+      </c>
       <c r="D996" s="0" t="n">
         <v>129.2</v>
       </c>
-      <c r="E996" s="0"/>
+      <c r="E996" s="0" t="n">
+        <v>97.22</v>
+      </c>
       <c r="F996" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G996" s="0"/>
-      <c r="H996" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000044150728</t>
+        </is>
+      </c>
+      <c r="G996" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H996" s="0" t="inlineStr">
+        <is>
+          <t>Chattanooga deluxe pedal exerciser</t>
+        </is>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="inlineStr">
@@ -23892,18 +24648,30 @@
           <t>01-8030</t>
         </is>
       </c>
-      <c r="C997" s="0"/>
+      <c r="C997" s="0" t="inlineStr">
+        <is>
+          <t>MAGNECISER ARM/LEG PEDAL EXERCISER</t>
+        </is>
+      </c>
       <c r="D997" s="0" t="n">
         <v>162.69</v>
       </c>
-      <c r="E997" s="0"/>
+      <c r="E997" s="0" t="n">
+        <v>122.1</v>
+      </c>
       <c r="F997" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G997" s="0"/>
-      <c r="H997" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555561</t>
+        </is>
+      </c>
+      <c r="G997" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H997" s="0" t="inlineStr">
+        <is>
+          <t>Chattanooga Magneciser arm/leg pedal exerciser</t>
+        </is>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="inlineStr">
@@ -24084,18 +24852,30 @@
           <t>10-0711</t>
         </is>
       </c>
-      <c r="C1005" s="0"/>
+      <c r="C1005" s="0" t="inlineStr">
+        <is>
+          <t>CANDO ECON. PEDAL EXER.R,COMES KD</t>
+        </is>
+      </c>
       <c r="D1005" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E1005" s="0"/>
+      <c r="E1005" s="0" t="n">
+        <v>20.95</v>
+      </c>
       <c r="F1005" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1005" s="0"/>
-      <c r="H1005" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556928</t>
+        </is>
+      </c>
+      <c r="G1005" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1005" s="0" t="inlineStr">
+        <is>
+          <t>Cando economy pedal exerciser, comes k/d. Portable lower and upper body exercise cycle. Wide leg spread and rubber non-marring feet keep exerciser stable even when patient has litt...</t>
+        </is>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="0" t="inlineStr">
@@ -24108,18 +24888,30 @@
           <t>20-4030B</t>
         </is>
       </c>
-      <c r="C1006" s="0"/>
+      <c r="C1006" s="0" t="inlineStr">
+        <is>
+          <t>CANDO SWIM BAR, BLUE</t>
+        </is>
+      </c>
       <c r="D1006" s="0" t="n">
         <v>16.74</v>
       </c>
-      <c r="E1006" s="0"/>
+      <c r="E1006" s="0" t="n">
+        <v>17.79</v>
+      </c>
       <c r="F1006" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1006" s="0"/>
-      <c r="H1006" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556537</t>
+        </is>
+      </c>
+      <c r="G1006" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1006" s="0" t="inlineStr">
+        <is>
+          <t>Cando swim bar, blue</t>
+        </is>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="0" t="inlineStr">
@@ -24132,18 +24924,30 @@
           <t>20-4030R</t>
         </is>
       </c>
-      <c r="C1007" s="0"/>
+      <c r="C1007" s="0" t="inlineStr">
+        <is>
+          <t>CANDO SWIM BAR, RED</t>
+        </is>
+      </c>
       <c r="D1007" s="0" t="n">
         <v>16.74</v>
       </c>
-      <c r="E1007" s="0"/>
+      <c r="E1007" s="0" t="n">
+        <v>17.79</v>
+      </c>
       <c r="F1007" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1007" s="0"/>
-      <c r="H1007" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556538</t>
+        </is>
+      </c>
+      <c r="G1007" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1007" s="0" t="inlineStr">
+        <is>
+          <t>Cando swim bar, red</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="0" t="inlineStr">
@@ -24156,18 +24960,30 @@
           <t>30-1725</t>
         </is>
       </c>
-      <c r="C1008" s="0"/>
+      <c r="C1008" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 40 CM (15.6IN)</t>
+        </is>
+      </c>
       <c r="D1008" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E1008" s="0"/>
+      <c r="E1008" s="0" t="n">
+        <v>20.34</v>
+      </c>
       <c r="F1008" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1008" s="0"/>
-      <c r="H1008" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556742</t>
+        </is>
+      </c>
+      <c r="G1008" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1008" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 40cm (15.6in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="0" t="inlineStr">
@@ -24180,18 +24996,30 @@
           <t>30-1728</t>
         </is>
       </c>
-      <c r="C1009" s="0"/>
+      <c r="C1009" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 70 CM (27.6IN)</t>
+        </is>
+      </c>
       <c r="D1009" s="0" t="n">
         <v>57.42</v>
       </c>
-      <c r="E1009" s="0"/>
+      <c r="E1009" s="0" t="n">
+        <v>40.69</v>
+      </c>
       <c r="F1009" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1009" s="0"/>
-      <c r="H1009" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553355</t>
+        </is>
+      </c>
+      <c r="G1009" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1009" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 70cm (27.6in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="0" t="inlineStr">
@@ -24204,18 +25032,30 @@
           <t>30-1729</t>
         </is>
       </c>
-      <c r="C1010" s="0"/>
+      <c r="C1010" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 80 CM (31.5IN)</t>
+        </is>
+      </c>
       <c r="D1010" s="0" t="n">
         <v>66.98</v>
       </c>
-      <c r="E1010" s="0"/>
+      <c r="E1010" s="0" t="n">
+        <v>47.48</v>
+      </c>
       <c r="F1010" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1010" s="0"/>
-      <c r="H1010" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556757</t>
+        </is>
+      </c>
+      <c r="G1010" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1010" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 80cm (31.5in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="0" t="inlineStr">
@@ -24828,18 +25668,30 @@
           <t>30-1997</t>
         </is>
       </c>
-      <c r="C1036" s="0"/>
+      <c r="C1036" s="0" t="inlineStr">
+        <is>
+          <t>MASSAGE BALL, 9 CM (3.6"), RED</t>
+        </is>
+      </c>
       <c r="D1036" s="0" t="n">
         <v>3.83</v>
       </c>
-      <c r="E1036" s="0"/>
+      <c r="E1036" s="0" t="n">
+        <v>2.98</v>
+      </c>
       <c r="F1036" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1036" s="0"/>
-      <c r="H1036" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993226</t>
+        </is>
+      </c>
+      <c r="G1036" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1036" s="0" t="inlineStr">
+        <is>
+          <t>Massage ball, 9cm (3.6in). Massage balls and rollers are used to help achieve muscle and tension release for all parts of the body.</t>
+        </is>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" s="0" t="inlineStr">
@@ -24948,18 +25800,30 @@
           <t>30-1999-12</t>
         </is>
       </c>
-      <c r="C1041" s="0"/>
+      <c r="C1041" s="0" t="inlineStr">
+        <is>
+          <t>MASSAGE BALL, 15 CM (6.0IN), 1 DOZEN</t>
+        </is>
+      </c>
       <c r="D1041" s="0" t="n">
         <v>76.56</v>
       </c>
-      <c r="E1041" s="0"/>
+      <c r="E1041" s="0" t="n">
+        <v>66.2</v>
+      </c>
       <c r="F1041" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1041" s="0"/>
-      <c r="H1041" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993543</t>
+        </is>
+      </c>
+      <c r="G1041" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1041" s="0" t="inlineStr">
+        <is>
+          <t>Massage ball, 15cm (6.0in), 1 dozen</t>
+        </is>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="0" t="inlineStr">
@@ -25164,18 +26028,30 @@
           <t>10-5340</t>
         </is>
       </c>
-      <c r="C1050" s="0"/>
+      <c r="C1050" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HOLD-RITE HANDLE, 1 PAIR</t>
+        </is>
+      </c>
       <c r="D1050" s="0" t="n">
         <v>8.13</v>
       </c>
-      <c r="E1050" s="0"/>
+      <c r="E1050" s="0" t="n">
+        <v>4.81</v>
+      </c>
       <c r="F1050" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1050" s="0"/>
-      <c r="H1050" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556614</t>
+        </is>
+      </c>
+      <c r="G1050" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1050" s="0" t="inlineStr">
+        <is>
+          <t>Cando hold-rite handle, 1 pair. padded, ridged handles make band/tubing easy to grip. The self-locking "adjuster" holds band or tubing in place during the most strenuous exercises.</t>
+        </is>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="0" t="inlineStr">
@@ -25308,18 +26184,30 @@
           <t>30-1727</t>
         </is>
       </c>
-      <c r="C1056" s="0"/>
+      <c r="C1056" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 60 CM (23.6IN)</t>
+        </is>
+      </c>
       <c r="D1056" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1056" s="0"/>
+      <c r="E1056" s="0" t="n">
+        <v>33.91</v>
+      </c>
       <c r="F1056" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1056" s="0"/>
-      <c r="H1056" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553778</t>
+        </is>
+      </c>
+      <c r="G1056" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1056" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 60cm (23.6in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="0" t="inlineStr">
@@ -25332,18 +26220,30 @@
           <t>30-1726</t>
         </is>
       </c>
-      <c r="C1057" s="0"/>
+      <c r="C1057" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 50 CM (19.7IN)</t>
+        </is>
+      </c>
       <c r="D1057" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E1057" s="0"/>
+      <c r="E1057" s="0" t="n">
+        <v>27.13</v>
+      </c>
       <c r="F1057" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1057" s="0"/>
-      <c r="H1057" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555695</t>
+        </is>
+      </c>
+      <c r="G1057" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1057" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 50cm (19.7in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="0" t="inlineStr">
@@ -25428,18 +26328,30 @@
           <t>30-1725</t>
         </is>
       </c>
-      <c r="C1061" s="0"/>
+      <c r="C1061" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 40 CM (15.6IN)</t>
+        </is>
+      </c>
       <c r="D1061" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E1061" s="0"/>
+      <c r="E1061" s="0" t="n">
+        <v>20.34</v>
+      </c>
       <c r="F1061" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1061" s="0"/>
-      <c r="H1061" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556742</t>
+        </is>
+      </c>
+      <c r="G1061" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1061" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 40cm (15.6in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="0" t="inlineStr">
@@ -25452,18 +26364,30 @@
           <t>30-1728</t>
         </is>
       </c>
-      <c r="C1062" s="0"/>
+      <c r="C1062" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 70 CM (27.6IN)</t>
+        </is>
+      </c>
       <c r="D1062" s="0" t="n">
         <v>57.42</v>
       </c>
-      <c r="E1062" s="0"/>
+      <c r="E1062" s="0" t="n">
+        <v>40.69</v>
+      </c>
       <c r="F1062" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1062" s="0"/>
-      <c r="H1062" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553355</t>
+        </is>
+      </c>
+      <c r="G1062" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1062" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 70cm (27.6in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="0" t="inlineStr">
@@ -25476,18 +26400,30 @@
           <t>30-1729</t>
         </is>
       </c>
-      <c r="C1063" s="0"/>
+      <c r="C1063" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PEANUT ROLL, 80 CM (31.5IN)</t>
+        </is>
+      </c>
       <c r="D1063" s="0" t="n">
         <v>66.98</v>
       </c>
-      <c r="E1063" s="0"/>
+      <c r="E1063" s="0" t="n">
+        <v>47.48</v>
+      </c>
       <c r="F1063" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1063" s="0"/>
-      <c r="H1063" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556757</t>
+        </is>
+      </c>
+      <c r="G1063" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1063" s="0" t="inlineStr">
+        <is>
+          <t>Cando peanut roll, 80cm (31.5in). The Cando inflatable rolls are much easier to control than exercise balls. These colorful inflatable molded hvy.-duty vinyl rolls can support up t...</t>
+        </is>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="0" t="inlineStr">
@@ -25692,18 +26628,30 @@
           <t>10-3140</t>
         </is>
       </c>
-      <c r="C1072" s="0"/>
+      <c r="C1072" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 1 POUND</t>
+        </is>
+      </c>
       <c r="D1072" s="0" t="n">
         <v>14.35</v>
       </c>
-      <c r="E1072" s="0"/>
+      <c r="E1072" s="0" t="n">
+        <v>9.31</v>
+      </c>
       <c r="F1072" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1072" s="0"/>
-      <c r="H1072" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554892</t>
+        </is>
+      </c>
+      <c r="G1072" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1072" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 1 pound. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will bounce. Balls can be used w...</t>
+        </is>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="0" t="inlineStr">
@@ -25716,18 +26664,30 @@
           <t>10-3141</t>
         </is>
       </c>
-      <c r="C1073" s="0"/>
+      <c r="C1073" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 2 POUND</t>
+        </is>
+      </c>
       <c r="D1073" s="0" t="n">
         <v>16.74</v>
       </c>
-      <c r="E1073" s="0"/>
+      <c r="E1073" s="0" t="n">
+        <v>11.17</v>
+      </c>
       <c r="F1073" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1073" s="0"/>
-      <c r="H1073" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556933</t>
+        </is>
+      </c>
+      <c r="G1073" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1073" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 2 pound. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will bounce. Balls can be used w...</t>
+        </is>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="0" t="inlineStr">
@@ -25740,18 +26700,30 @@
           <t>10-3142</t>
         </is>
       </c>
-      <c r="C1074" s="0"/>
+      <c r="C1074" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 4 POUND</t>
+        </is>
+      </c>
       <c r="D1074" s="0" t="n">
         <v>23.93</v>
       </c>
-      <c r="E1074" s="0"/>
+      <c r="E1074" s="0" t="n">
+        <v>14.9</v>
+      </c>
       <c r="F1074" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1074" s="0"/>
-      <c r="H1074" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556931</t>
+        </is>
+      </c>
+      <c r="G1074" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1074" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 4 pound. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will bounce. Balls can be used w...</t>
+        </is>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="0" t="inlineStr">
@@ -25764,18 +26736,30 @@
           <t>10-3143</t>
         </is>
       </c>
-      <c r="C1075" s="0"/>
+      <c r="C1075" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 7 POUND</t>
+        </is>
+      </c>
       <c r="D1075" s="0" t="n">
         <v>33.5</v>
       </c>
-      <c r="E1075" s="0"/>
+      <c r="E1075" s="0" t="n">
+        <v>22.35</v>
+      </c>
       <c r="F1075" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1075" s="0"/>
-      <c r="H1075" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553081</t>
+        </is>
+      </c>
+      <c r="G1075" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1075" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 7 pound. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will bounce. Balls can be used w...</t>
+        </is>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="0" t="inlineStr">
@@ -25788,18 +26772,30 @@
           <t>10-3144</t>
         </is>
       </c>
-      <c r="C1076" s="0"/>
+      <c r="C1076" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 11 POUND</t>
+        </is>
+      </c>
       <c r="D1076" s="0" t="n">
         <v>45.46</v>
       </c>
-      <c r="E1076" s="0"/>
+      <c r="E1076" s="0" t="n">
+        <v>31.67</v>
+      </c>
       <c r="F1076" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1076" s="0"/>
-      <c r="H1076" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555961</t>
+        </is>
+      </c>
+      <c r="G1076" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1076" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 11 pound. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will bounce. Balls can be used ...</t>
+        </is>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="0" t="inlineStr">
@@ -25812,18 +26808,30 @@
           <t>10-3145</t>
         </is>
       </c>
-      <c r="C1077" s="0"/>
+      <c r="C1077" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 15 POUND</t>
+        </is>
+      </c>
       <c r="D1077" s="0" t="n">
         <v>59.81</v>
       </c>
-      <c r="E1077" s="0"/>
+      <c r="E1077" s="0" t="n">
+        <v>42.84</v>
+      </c>
       <c r="F1077" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1077" s="0"/>
-      <c r="H1077" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555450</t>
+        </is>
+      </c>
+      <c r="G1077" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1077" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 15 pound. Six plyometric balls ranging from 1 pound to 15 pounds are available. Balls have easy-to-grip rubbery surface and will bounce. Balls can be used ...</t>
+        </is>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="0" t="inlineStr">
@@ -25836,18 +26844,30 @@
           <t>10-3147</t>
         </is>
       </c>
-      <c r="C1078" s="0"/>
+      <c r="C1078" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 20 POUND</t>
+        </is>
+      </c>
       <c r="D1078" s="0" t="n">
         <v>78.95</v>
       </c>
-      <c r="E1078" s="0"/>
+      <c r="E1078" s="0" t="n">
+        <v>55.89</v>
+      </c>
       <c r="F1078" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1078" s="0"/>
-      <c r="H1078" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555451</t>
+        </is>
+      </c>
+      <c r="G1078" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1078" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 20 pound</t>
+        </is>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="0" t="inlineStr">
@@ -25860,18 +26880,30 @@
           <t>10-3148</t>
         </is>
       </c>
-      <c r="C1079" s="0"/>
+      <c r="C1079" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BOUNCING PLYOBALL, 30 POUND</t>
+        </is>
+      </c>
       <c r="D1079" s="0" t="n">
         <v>98.09</v>
       </c>
-      <c r="E1079" s="0"/>
+      <c r="E1079" s="0" t="n">
+        <v>96.87</v>
+      </c>
       <c r="F1079" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1079" s="0"/>
-      <c r="H1079" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557133</t>
+        </is>
+      </c>
+      <c r="G1079" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1079" s="0" t="inlineStr">
+        <is>
+          <t>Cando bouncing plyoball, 30 pound</t>
+        </is>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="0" t="inlineStr">
@@ -25884,18 +26916,30 @@
           <t>10-3120</t>
         </is>
       </c>
-      <c r="C1080" s="0"/>
+      <c r="C1080" s="0" t="inlineStr">
+        <is>
+          <t>6 BALL VERTICAL PLYOMETRIC BALL RACK</t>
+        </is>
+      </c>
       <c r="D1080" s="0" t="n">
         <v>107.66</v>
       </c>
-      <c r="E1080" s="0"/>
+      <c r="E1080" s="0" t="n">
+        <v>83.84</v>
+      </c>
       <c r="F1080" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1080" s="0"/>
-      <c r="H1080" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557492</t>
+        </is>
+      </c>
+      <c r="G1080" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1080" s="0" t="inlineStr">
+        <is>
+          <t>Plyotree 5 ball vertical rack. Holds up to 5 medicine balls. Made from high strength steel tubing. Small foot-print of 12" wide x 12" deep x 58" high).</t>
+        </is>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="0" t="inlineStr">
@@ -25908,18 +26952,30 @@
           <t>10-3180</t>
         </is>
       </c>
-      <c r="C1081" s="0"/>
+      <c r="C1081" s="0" t="inlineStr">
+        <is>
+          <t>CANDO DUAL-HANDLE MEDICINE BALL,6 LB,9IN</t>
+        </is>
+      </c>
       <c r="D1081" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1081" s="0"/>
+      <c r="E1081" s="0" t="n">
+        <v>36.17</v>
+      </c>
       <c r="F1081" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1081" s="0"/>
-      <c r="H1081" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555456</t>
+        </is>
+      </c>
+      <c r="G1081" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1081" s="0" t="inlineStr">
+        <is>
+          <t>Cando Dual Hand Medicine Ball 6lb 9"/23cm yellow. Ideal for abdominal training, rotational movement and strength training, the dual, soft grip handle is easy to grip with one or tw...</t>
+        </is>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="0" t="inlineStr">
@@ -25932,18 +26988,30 @@
           <t>10-3181</t>
         </is>
       </c>
-      <c r="C1082" s="0"/>
+      <c r="C1082" s="0" t="inlineStr">
+        <is>
+          <t>CANDO DUAL-HANDLE MEDICINE BALL,12 LB</t>
+        </is>
+      </c>
       <c r="D1082" s="0" t="n">
         <v>57.42</v>
       </c>
-      <c r="E1082" s="0"/>
+      <c r="E1082" s="0" t="n">
+        <v>47.48</v>
+      </c>
       <c r="F1082" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1082" s="0"/>
-      <c r="H1082" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556936</t>
+        </is>
+      </c>
+      <c r="G1082" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1082" s="0" t="inlineStr">
+        <is>
+          <t>Cando Dual Hand Medicine Ball 12lb 9"/23cm red. Ideal for abdominal training, rotational movement and strength training, the dual, soft grip handle is easy to grip with one or two ...</t>
+        </is>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="0" t="inlineStr">
@@ -25956,18 +27024,30 @@
           <t>10-3182</t>
         </is>
       </c>
-      <c r="C1083" s="0"/>
+      <c r="C1083" s="0" t="inlineStr">
+        <is>
+          <t>CANDO DUAL-HANDLE MEDICINE BALL,18 LB</t>
+        </is>
+      </c>
       <c r="D1083" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E1083" s="0"/>
+      <c r="E1083" s="0" t="n">
+        <v>58.78</v>
+      </c>
       <c r="F1083" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1083" s="0"/>
-      <c r="H1083" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553082</t>
+        </is>
+      </c>
+      <c r="G1083" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1083" s="0" t="inlineStr">
+        <is>
+          <t>Cando Dual Hand Medicine Ball 18lb 9"/23cm green . Ideal for abdominal training, rotational movement and strength training, the dual, soft grip handle is easy to grip with one or t...</t>
+        </is>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="0" t="inlineStr">
@@ -25980,18 +27060,30 @@
           <t>10-3183</t>
         </is>
       </c>
-      <c r="C1084" s="0"/>
+      <c r="C1084" s="0" t="inlineStr">
+        <is>
+          <t>CANDO DUAL-HANDLE MEDICINE BALL,24 LB,BL</t>
+        </is>
+      </c>
       <c r="D1084" s="0" t="n">
         <v>86.13</v>
       </c>
-      <c r="E1084" s="0"/>
+      <c r="E1084" s="0" t="n">
+        <v>70.09</v>
+      </c>
       <c r="F1084" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1084" s="0"/>
-      <c r="H1084" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556608</t>
+        </is>
+      </c>
+      <c r="G1084" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1084" s="0" t="inlineStr">
+        <is>
+          <t>Cando Dual Hand Medicine Ball 24lb 9"/23cm blue. Ideal for abdominal training, rotational movement and strength training, the dual, soft grip handle is easy to grip with one or two...</t>
+        </is>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="0" t="inlineStr">
@@ -26004,18 +27096,30 @@
           <t>10-3184</t>
         </is>
       </c>
-      <c r="C1085" s="0"/>
+      <c r="C1085" s="0" t="inlineStr">
+        <is>
+          <t>CANDO DUAL-HANDLE MEDICINE BALL,30 LB</t>
+        </is>
+      </c>
       <c r="D1085" s="0" t="n">
         <v>100.48</v>
       </c>
-      <c r="E1085" s="0"/>
+      <c r="E1085" s="0" t="n">
+        <v>81.39</v>
+      </c>
       <c r="F1085" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1085" s="0"/>
-      <c r="H1085" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555966</t>
+        </is>
+      </c>
+      <c r="G1085" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1085" s="0" t="inlineStr">
+        <is>
+          <t>Cando Dual Hand Medicine Ball 30lb 9"/23cm black. Ideal for abdominal training, rotational movement and strength training, the dual, soft grip handle is easy to grip with one or tw...</t>
+        </is>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="0" t="inlineStr">
@@ -26148,18 +27252,30 @@
           <t>10-0440</t>
         </is>
       </c>
-      <c r="C1091" s="0"/>
+      <c r="C1091" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HANDY BALL W/ADJ. STRAP,1 LB,TAN</t>
+        </is>
+      </c>
       <c r="D1091" s="0" t="n">
         <v>12.91</v>
       </c>
-      <c r="E1091" s="0"/>
+      <c r="E1091" s="0" t="n">
+        <v>8.72</v>
+      </c>
       <c r="F1091" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1091" s="0"/>
-      <c r="H1091" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553925</t>
+        </is>
+      </c>
+      <c r="G1091" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1091" s="0" t="inlineStr">
+        <is>
+          <t>Cando Handy Ball with adjustable strap 1 pound tan. Get all the benefits of traditional weight training without using hard-to-hold metal dumbbells. Ergonomic shape makes for easy g...</t>
+        </is>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="0" t="inlineStr">
@@ -26172,18 +27288,30 @@
           <t>10-0441</t>
         </is>
       </c>
-      <c r="C1092" s="0"/>
+      <c r="C1092" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HANDY BALL W/AD. STRAP,2 LB,YEL</t>
+        </is>
+      </c>
       <c r="D1092" s="0" t="n">
         <v>15.32</v>
       </c>
-      <c r="E1092" s="0"/>
+      <c r="E1092" s="0" t="n">
+        <v>10.71</v>
+      </c>
       <c r="F1092" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1092" s="0"/>
-      <c r="H1092" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553509</t>
+        </is>
+      </c>
+      <c r="G1092" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1092" s="0" t="inlineStr">
+        <is>
+          <t>Cando Handy Ball with adjustable strap 2 pound yellow. Get all the benefits of traditional weight training without using hard-to-hold metal dumbbells. Ergonomic shape makes for eas...</t>
+        </is>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" s="0" t="inlineStr">
@@ -26196,18 +27324,30 @@
           <t>10-0442</t>
         </is>
       </c>
-      <c r="C1093" s="0"/>
+      <c r="C1093" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HANDY BALL W/ADJ. STRAP,3 LB,RED</t>
+        </is>
+      </c>
       <c r="D1093" s="0" t="n">
         <v>17.71</v>
       </c>
-      <c r="E1093" s="0"/>
+      <c r="E1093" s="0" t="n">
+        <v>14.0</v>
+      </c>
       <c r="F1093" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1093" s="0"/>
-      <c r="H1093" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557408</t>
+        </is>
+      </c>
+      <c r="G1093" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1093" s="0" t="inlineStr">
+        <is>
+          <t>Cando Handy Ball with adjustable strap 3 pound red. Get all the benefits of traditional weight training without using hard-to-hold metal dumbbells. Ergonomic shape makes for easy g...</t>
+        </is>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="0" t="inlineStr">
@@ -26220,18 +27360,30 @@
           <t>10-0443</t>
         </is>
       </c>
-      <c r="C1094" s="0"/>
+      <c r="C1094" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HANDY BALL W/ADJ. STRAP,4 LB,GRN</t>
+        </is>
+      </c>
       <c r="D1094" s="0" t="n">
         <v>20.1</v>
       </c>
-      <c r="E1094" s="0"/>
+      <c r="E1094" s="0" t="n">
+        <v>15.81</v>
+      </c>
       <c r="F1094" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1094" s="0"/>
-      <c r="H1094" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554317</t>
+        </is>
+      </c>
+      <c r="G1094" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1094" s="0" t="inlineStr">
+        <is>
+          <t>Cando Handy Ball with adjustable strap 4 pound green. Get all the benefits of traditional weight training without using hard-to-hold metal dumbbells. Ergonomic shape makes for easy...</t>
+        </is>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="0" t="inlineStr">
@@ -26244,18 +27396,30 @@
           <t>10-0444</t>
         </is>
       </c>
-      <c r="C1095" s="0"/>
+      <c r="C1095" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HANDY BALL W/AD. STRAP,5 LB,BLUE</t>
+        </is>
+      </c>
       <c r="D1095" s="0" t="n">
         <v>22.49</v>
       </c>
-      <c r="E1095" s="0"/>
+      <c r="E1095" s="0" t="n">
+        <v>17.63</v>
+      </c>
       <c r="F1095" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1095" s="0"/>
-      <c r="H1095" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556925</t>
+        </is>
+      </c>
+      <c r="G1095" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1095" s="0" t="inlineStr">
+        <is>
+          <t>Cando Handy Ball with adjustable strap 5 pound blue. Get all the benefits of traditional weight training without using hard-to-hold metal dumbbells. Ergonomic shape makes for easy ...</t>
+        </is>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="0" t="inlineStr">
@@ -26268,18 +27432,30 @@
           <t>11-1710</t>
         </is>
       </c>
-      <c r="C1096" s="0"/>
+      <c r="C1096" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL PARAFFIN BATH ACCESSORY PACKAGE</t>
+        </is>
+      </c>
       <c r="D1096" s="0" t="n">
         <v>9.57</v>
       </c>
-      <c r="E1096" s="0"/>
+      <c r="E1096" s="0" t="n">
+        <v>9.31</v>
+      </c>
       <c r="F1096" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1096" s="0"/>
-      <c r="H1096" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994709</t>
+        </is>
+      </c>
+      <c r="G1096" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1096" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel paraffin bath accessory package: liners, mitt and bottie</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="0" t="inlineStr">
@@ -26292,18 +27468,30 @@
           <t>11-1713</t>
         </is>
       </c>
-      <c r="C1097" s="0"/>
+      <c r="C1097" s="0" t="inlineStr">
+        <is>
+          <t>PLASTIC HAND/FOOT LINERS FOR PARAFFIN BA</t>
+        </is>
+      </c>
       <c r="D1097" s="0" t="n">
         <v>7.18</v>
       </c>
-      <c r="E1097" s="0"/>
+      <c r="E1097" s="0" t="n">
+        <v>8.13</v>
+      </c>
       <c r="F1097" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1097" s="0"/>
-      <c r="H1097" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994298</t>
+        </is>
+      </c>
+      <c r="G1097" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1097" s="0" t="inlineStr">
+        <is>
+          <t>Plastic hand/foot liners for paraffin bath (100 each). The WaxWel therapeutic moist-heat paraffin unit is a hvy. duty unit. Unit has oversized tank that can accommodate a mans size...</t>
+        </is>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="0" t="inlineStr">
@@ -26316,18 +27504,30 @@
           <t>11-1750</t>
         </is>
       </c>
-      <c r="C1098" s="0"/>
+      <c r="C1098" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL BEADS,UNSCENTED REFILL 6LB</t>
+        </is>
+      </c>
       <c r="D1098" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E1098" s="0"/>
+      <c r="E1098" s="0" t="n">
+        <v>21.73</v>
+      </c>
       <c r="F1098" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1098" s="0"/>
-      <c r="H1098" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994115</t>
+        </is>
+      </c>
+      <c r="G1098" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1098" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel beads, unscented refill (6 1lb. pellet bags). When your paraffin bath needs additional paraffin, simply add the proper amount of beads to fill the tank. The beads are easy t...</t>
+        </is>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="0" t="inlineStr">
@@ -26340,18 +27540,30 @@
           <t>10-5099</t>
         </is>
       </c>
-      <c r="C1099" s="0"/>
+      <c r="C1099" s="0" t="inlineStr">
+        <is>
+          <t>CANDO EXERCISE BAND/TUBING WALL PULLEY S</t>
+        </is>
+      </c>
       <c r="D1099" s="0" t="n">
         <v>303.85</v>
       </c>
-      <c r="E1099" s="0"/>
+      <c r="E1099" s="0" t="n">
+        <v>228.38</v>
+      </c>
       <c r="F1099" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1099" s="0"/>
-      <c r="H1099" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000044150721</t>
+        </is>
+      </c>
+      <c r="G1099" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1099" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band/tubing wall pulley system, 6' railing</t>
+        </is>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="0" t="inlineStr">
@@ -26412,18 +27624,30 @@
           <t>10-1471</t>
         </is>
       </c>
-      <c r="C1102" s="0"/>
+      <c r="C1102" s="0" t="inlineStr">
+        <is>
+          <t>THERAPUTTY EXERCISE PUTTY,BLACK,5 POUND</t>
+        </is>
+      </c>
       <c r="D1102" s="0" t="n">
         <v>100.48</v>
       </c>
-      <c r="E1102" s="0"/>
+      <c r="E1102" s="0" t="n">
+        <v>61.92</v>
+      </c>
       <c r="F1102" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1102" s="0"/>
-      <c r="H1102" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554340</t>
+        </is>
+      </c>
+      <c r="G1102" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1102" s="0" t="inlineStr">
+        <is>
+          <t>Cando Theraputty, black, 5 pound. Cando Theraputty hand exercise material is the standard in resistive hand exercise material.</t>
+        </is>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="0" t="inlineStr">
@@ -26436,18 +27660,30 @@
           <t>10-0925</t>
         </is>
       </c>
-      <c r="C1103" s="0"/>
+      <c r="C1103" s="0" t="inlineStr">
+        <is>
+          <t>THERAPUTTY EXERCISE PUTTY,GREEN,5 POUND</t>
+        </is>
+      </c>
       <c r="D1103" s="0" t="n">
         <v>100.48</v>
       </c>
-      <c r="E1103" s="0"/>
+      <c r="E1103" s="0" t="n">
+        <v>61.92</v>
+      </c>
       <c r="F1103" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1103" s="0"/>
-      <c r="H1103" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554970</t>
+        </is>
+      </c>
+      <c r="G1103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1103" s="0" t="inlineStr">
+        <is>
+          <t>Cando Theraputty, green, 5 pound. Cando Theraputty hand exercise material is the standard in resistive hand exercise material.</t>
+        </is>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="0" t="inlineStr">
@@ -26460,18 +27696,30 @@
           <t>10-0924</t>
         </is>
       </c>
-      <c r="C1104" s="0"/>
+      <c r="C1104" s="0" t="inlineStr">
+        <is>
+          <t>THERAPUTTY EXERCISE PUTTY, RED, 5 POUND</t>
+        </is>
+      </c>
       <c r="D1104" s="0" t="n">
         <v>100.48</v>
       </c>
-      <c r="E1104" s="0"/>
+      <c r="E1104" s="0" t="n">
+        <v>61.92</v>
+      </c>
       <c r="F1104" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1104" s="0"/>
-      <c r="H1104" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556814</t>
+        </is>
+      </c>
+      <c r="G1104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1104" s="0" t="inlineStr">
+        <is>
+          <t>Cando Theraputty, red, 5 pound. Cando Theraputty hand exercise material is the standard in resistive hand exercise material.</t>
+        </is>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="0" t="inlineStr">
@@ -26484,18 +27732,30 @@
           <t>10-0995</t>
         </is>
       </c>
-      <c r="C1105" s="0"/>
+      <c r="C1105" s="0" t="inlineStr">
+        <is>
+          <t>THERAPUTTY EXERCISE PUTTY, TAN, 5 POUND</t>
+        </is>
+      </c>
       <c r="D1105" s="0" t="n">
         <v>100.48</v>
       </c>
-      <c r="E1105" s="0"/>
+      <c r="E1105" s="0" t="n">
+        <v>61.92</v>
+      </c>
       <c r="F1105" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1105" s="0"/>
-      <c r="H1105" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053552824</t>
+        </is>
+      </c>
+      <c r="G1105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1105" s="0" t="inlineStr">
+        <is>
+          <t>Cando Theraputty, tan, 5 pound. Cando Theraputty hand exercise material is the standard in resistive hand exercise material.</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="0" t="inlineStr">
@@ -26508,18 +27768,30 @@
           <t>10-0923</t>
         </is>
       </c>
-      <c r="C1106" s="0"/>
+      <c r="C1106" s="0" t="inlineStr">
+        <is>
+          <t>THERAPUTTY EXERCISE PUTTY,YELLOW,5 POUND</t>
+        </is>
+      </c>
       <c r="D1106" s="0" t="n">
         <v>100.48</v>
       </c>
-      <c r="E1106" s="0"/>
+      <c r="E1106" s="0" t="n">
+        <v>61.92</v>
+      </c>
       <c r="F1106" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1106" s="0"/>
-      <c r="H1106" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053552822</t>
+        </is>
+      </c>
+      <c r="G1106" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1106" s="0" t="inlineStr">
+        <is>
+          <t>Cando Theraputty, yellow, 5 pound. Cando Theraputty hand exercise material is the standard in resistive hand exercise material.</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="0" t="inlineStr">
@@ -26532,18 +27804,30 @@
           <t>10-0940</t>
         </is>
       </c>
-      <c r="C1107" s="0"/>
+      <c r="C1107" s="0" t="inlineStr">
+        <is>
+          <t>CONT.S/LIDS ONLY FOR PUTTY 2&amp;3 OUNCE, 25</t>
+        </is>
+      </c>
       <c r="D1107" s="0" t="n">
         <v>40.67</v>
       </c>
-      <c r="E1107" s="0"/>
+      <c r="E1107" s="0" t="n">
+        <v>19.22</v>
+      </c>
       <c r="F1107" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1107" s="0"/>
-      <c r="H1107" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994705</t>
+        </is>
+      </c>
+      <c r="G1107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1107" s="0" t="inlineStr">
+        <is>
+          <t>Containers ONLY for putty, 2 and 3 ounce (25 each). Cando Theraputty hand exercise material is the standard in resistive hand exercise material.</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="0" t="inlineStr">
@@ -26580,18 +27864,30 @@
           <t>10-0575</t>
         </is>
       </c>
-      <c r="C1109" s="0"/>
+      <c r="C1109" s="0" t="inlineStr">
+        <is>
+          <t>DUMBBELL RACK,WALL MOUNTED,HOLDS 10</t>
+        </is>
+      </c>
       <c r="D1109" s="0" t="n">
         <v>86.13</v>
       </c>
-      <c r="E1109" s="0"/>
+      <c r="E1109" s="0" t="n">
+        <v>71.85</v>
+      </c>
       <c r="F1109" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1109" s="0"/>
-      <c r="H1109" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554318</t>
+        </is>
+      </c>
+      <c r="G1109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1109" s="0" t="inlineStr">
+        <is>
+          <t>dumbell rack, wall mounted, holds 10 dumbells. Dumbbell weight rack holds up to 20 vinyl coated dumbbells.</t>
+        </is>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="0" t="inlineStr">
@@ -26604,18 +27900,30 @@
           <t>12-1666</t>
         </is>
       </c>
-      <c r="C1110" s="0"/>
+      <c r="C1110" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE TACTILE MONOFILAMENT EVALUATOR</t>
+        </is>
+      </c>
       <c r="D1110" s="0" t="n">
         <v>289.49</v>
       </c>
-      <c r="E1110" s="0"/>
+      <c r="E1110" s="0" t="n">
+        <v>217.07</v>
+      </c>
       <c r="F1110" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1110" s="0"/>
-      <c r="H1110" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557046</t>
+        </is>
+      </c>
+      <c r="G1110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1110" s="0" t="inlineStr">
+        <is>
+          <t>Baseline tactile monofilament evaluator "complete" set, 20 pieces</t>
+        </is>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="0" t="inlineStr">
@@ -26628,18 +27936,30 @@
           <t>12-1664</t>
         </is>
       </c>
-      <c r="C1111" s="0"/>
+      <c r="C1111" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE TACTILE MONOFILAMENT EVALUATOR</t>
+        </is>
+      </c>
       <c r="D1111" s="0" t="n">
         <v>88.52</v>
       </c>
-      <c r="E1111" s="0"/>
+      <c r="E1111" s="0" t="n">
+        <v>65.57</v>
+      </c>
       <c r="F1111" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1111" s="0"/>
-      <c r="H1111" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555367</t>
+        </is>
+      </c>
+      <c r="G1111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1111" s="0" t="inlineStr">
+        <is>
+          <t>Baseline tactile monofilament evaluator foot set, 6 pieces, 2.83 3.61 4.31 4.56 5.07 6.65</t>
+        </is>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="0" t="inlineStr">
@@ -26652,18 +27972,30 @@
           <t>12-1662</t>
         </is>
       </c>
-      <c r="C1112" s="0"/>
+      <c r="C1112" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE TACTILE MONOFILAMENT EVALUATOR,</t>
+        </is>
+      </c>
       <c r="D1112" s="0" t="n">
         <v>74.17</v>
       </c>
-      <c r="E1112" s="0"/>
+      <c r="E1112" s="0" t="n">
+        <v>54.26</v>
+      </c>
       <c r="F1112" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1112" s="0"/>
-      <c r="H1112" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555366</t>
+        </is>
+      </c>
+      <c r="G1112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1112" s="0" t="inlineStr">
+        <is>
+          <t>Baseline tactile monofilament evaluator hand set, 5 pieces, 2.83 3.61 4.31 4.56 6.65</t>
+        </is>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="0" t="inlineStr">
@@ -26964,18 +28296,30 @@
           <t>11-1744</t>
         </is>
       </c>
-      <c r="C1125" s="0"/>
+      <c r="C1125" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL BEADS,LAVENDER REFILL 6LB</t>
+        </is>
+      </c>
       <c r="D1125" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E1125" s="0"/>
+      <c r="E1125" s="0" t="n">
+        <v>21.73</v>
+      </c>
       <c r="F1125" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1125" s="0"/>
-      <c r="H1125" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994114</t>
+        </is>
+      </c>
+      <c r="G1125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1125" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel beads, lavender refill (6 1lb. pellet bags). When your paraffin bath needs additional paraffin, simply add the proper amount of beads to fill the tank. The beads are easy to...</t>
+        </is>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="0" t="inlineStr">
@@ -26988,18 +28332,30 @@
           <t>11-1752</t>
         </is>
       </c>
-      <c r="C1126" s="0"/>
+      <c r="C1126" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL BEADS,WINTERGRN REFILL (6 1LB. PE</t>
+        </is>
+      </c>
       <c r="D1126" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E1126" s="0"/>
+      <c r="E1126" s="0" t="n">
+        <v>21.73</v>
+      </c>
       <c r="F1126" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1126" s="0"/>
-      <c r="H1126" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993695</t>
+        </is>
+      </c>
+      <c r="G1126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1126" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel beads, wintergreen refill (6 1lb. pellet bags) . When your paraffin bath needs additional paraffin, simply add the proper amount of beads to fill the tank. The beads are eas...</t>
+        </is>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="0" t="inlineStr">
@@ -27012,18 +28368,30 @@
           <t>11-1714</t>
         </is>
       </c>
-      <c r="C1127" s="0"/>
+      <c r="C1127" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL LAVENDER PARAFFIN WAX REFILL 6LB</t>
+        </is>
+      </c>
       <c r="D1127" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E1127" s="0"/>
+      <c r="E1127" s="0" t="n">
+        <v>15.93</v>
+      </c>
       <c r="F1127" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1127" s="0"/>
-      <c r="H1127" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994112</t>
+        </is>
+      </c>
+      <c r="G1127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1127" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel lavender paraffin wax refill (6 1lb. blocks). Convenient one pound paraffin blocks for use in all paraffin units. Each 1-pound block comes individually sealed in plastic bag...</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="0" t="inlineStr">
@@ -27036,18 +28404,30 @@
           <t>11-1720</t>
         </is>
       </c>
-      <c r="C1128" s="0"/>
+      <c r="C1128" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL UNSCENTED PARAFFIN WAX REFILL 6LB</t>
+        </is>
+      </c>
       <c r="D1128" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E1128" s="0"/>
+      <c r="E1128" s="0" t="n">
+        <v>15.93</v>
+      </c>
       <c r="F1128" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1128" s="0"/>
-      <c r="H1128" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993694</t>
+        </is>
+      </c>
+      <c r="G1128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1128" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel unscented paraffin wax refill (6 1lb. blocks). Convenient one pound paraffin blocks for use in all paraffin units. Each 1-pound block comes individually sealed in plastic ba...</t>
+        </is>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="0" t="inlineStr">
@@ -27060,18 +28440,30 @@
           <t>11-1722</t>
         </is>
       </c>
-      <c r="C1129" s="0"/>
+      <c r="C1129" s="0" t="inlineStr">
+        <is>
+          <t>WAXWEL WINTERGRN PARAFFIN WAX REFILL 6LB</t>
+        </is>
+      </c>
       <c r="D1129" s="0" t="n">
         <v>28.71</v>
       </c>
-      <c r="E1129" s="0"/>
+      <c r="E1129" s="0" t="n">
+        <v>15.93</v>
+      </c>
       <c r="F1129" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1129" s="0"/>
-      <c r="H1129" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994868</t>
+        </is>
+      </c>
+      <c r="G1129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1129" s="0" t="inlineStr">
+        <is>
+          <t>WaxWel wintergreen paraffin wax refill (6 1lb. blocks). Convenient one pound paraffin blocks for use in all paraffin units. Each 1-pound block comes individually sealed in plastic ...</t>
+        </is>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="0" t="inlineStr">
@@ -27372,18 +28764,30 @@
           <t>30-1231</t>
         </is>
       </c>
-      <c r="C1142" s="0"/>
+      <c r="C1142" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS STABILITY POSITIONING ROLL</t>
+        </is>
+      </c>
       <c r="D1142" s="0" t="n">
         <v>95.7</v>
       </c>
-      <c r="E1142" s="0"/>
+      <c r="E1142" s="0" t="n">
+        <v>55.89</v>
+      </c>
       <c r="F1142" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1142" s="0"/>
-      <c r="H1142" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556399</t>
+        </is>
+      </c>
+      <c r="G1142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1142" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders stability positioning half roll, 4"x18"(1")</t>
+        </is>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="0" t="inlineStr">
@@ -27396,18 +28800,30 @@
           <t>30-1232</t>
         </is>
       </c>
-      <c r="C1143" s="0"/>
+      <c r="C1143" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS STABILITY POSIT. HALF ROLL</t>
+        </is>
+      </c>
       <c r="D1143" s="0" t="n">
         <v>129.2</v>
       </c>
-      <c r="E1143" s="0"/>
+      <c r="E1143" s="0" t="n">
+        <v>83.84</v>
+      </c>
       <c r="F1143" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1143" s="0"/>
-      <c r="H1143" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553346</t>
+        </is>
+      </c>
+      <c r="G1143" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1143" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders stability positioning half roll, 6"x24"(1-1/2)</t>
+        </is>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="0" t="inlineStr">
@@ -27420,18 +28836,30 @@
           <t>30-1233</t>
         </is>
       </c>
-      <c r="C1144" s="0"/>
+      <c r="C1144" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS STABILITY POSITIONING ROLL</t>
+        </is>
+      </c>
       <c r="D1144" s="0" t="n">
         <v>177.05</v>
       </c>
-      <c r="E1144" s="0"/>
+      <c r="E1144" s="0" t="n">
+        <v>114.11</v>
+      </c>
       <c r="F1144" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1144" s="0"/>
-      <c r="H1144" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555687</t>
+        </is>
+      </c>
+      <c r="G1144" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1144" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders stability positioning half roll, 8"x30"(2)</t>
+        </is>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="0" t="inlineStr">
@@ -27468,18 +28896,30 @@
           <t>12-0406</t>
         </is>
       </c>
-      <c r="C1146" s="0"/>
+      <c r="C1146" s="0" t="inlineStr">
+        <is>
+          <t>REGULAR STAND-ON LIFTING BASE FOR DYN.</t>
+        </is>
+      </c>
       <c r="D1146" s="0" t="n">
         <v>119.63</v>
       </c>
-      <c r="E1146" s="0"/>
+      <c r="E1146" s="0" t="n">
+        <v>90.44</v>
+      </c>
       <c r="F1146" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1146" s="0"/>
-      <c r="H1146" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993696</t>
+        </is>
+      </c>
+      <c r="G1146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1146" s="0" t="inlineStr">
+        <is>
+          <t>regular stand-on lifting base for push-pull and back-leg-chest dynamometers. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline ...</t>
+        </is>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="0" t="inlineStr">
@@ -27492,18 +28932,30 @@
           <t>12-0407</t>
         </is>
       </c>
-      <c r="C1147" s="0"/>
+      <c r="C1147" s="0" t="inlineStr">
+        <is>
+          <t>LG STAND-ON LIFTING BASE FOR DYNAMOMETER</t>
+        </is>
+      </c>
       <c r="D1147" s="0" t="n">
         <v>167.48</v>
       </c>
-      <c r="E1147" s="0"/>
+      <c r="E1147" s="0" t="n">
+        <v>126.62</v>
+      </c>
       <c r="F1147" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1147" s="0"/>
-      <c r="H1147" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994716</t>
+        </is>
+      </c>
+      <c r="G1147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1147" s="0" t="inlineStr">
+        <is>
+          <t>large stand-on lifting base for push-pull and back-leg-chest dynamometers. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline an...</t>
+        </is>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="0" t="inlineStr">
@@ -27636,18 +29088,30 @@
           <t>11-1300</t>
         </is>
       </c>
-      <c r="C1153" s="0"/>
+      <c r="C1153" s="0" t="inlineStr">
+        <is>
+          <t>RELIEF PAK MOIST HEAT SET,VELOUR FOAM</t>
+        </is>
+      </c>
       <c r="D1153" s="0" t="n">
         <v>28.23</v>
       </c>
-      <c r="E1153" s="0"/>
+      <c r="E1153" s="0" t="n">
+        <v>18.48</v>
+      </c>
       <c r="F1153" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1153" s="0"/>
-      <c r="H1153" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994866</t>
+        </is>
+      </c>
+      <c r="G1153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1153" s="0" t="inlineStr">
+        <is>
+          <t>Relief Pak moist heat SET, standard terry foam with pocket. The Relief Pak moist heat pack is a simple and effective method of applying moist heat to a localized area. Gives at lea...</t>
+        </is>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="0" t="inlineStr">
@@ -27684,18 +29148,30 @@
           <t>11-1301</t>
         </is>
       </c>
-      <c r="C1155" s="0"/>
+      <c r="C1155" s="0" t="inlineStr">
+        <is>
+          <t>RELIEF PAK MOIST HEAT SET,VELOUR FOAM</t>
+        </is>
+      </c>
       <c r="D1155" s="0" t="n">
         <v>31.58</v>
       </c>
-      <c r="E1155" s="0"/>
+      <c r="E1155" s="0" t="n">
+        <v>20.89</v>
+      </c>
       <c r="F1155" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1155" s="0"/>
-      <c r="H1155" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554871</t>
+        </is>
+      </c>
+      <c r="G1155" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1155" s="0" t="inlineStr">
+        <is>
+          <t>Relief Pak moist heat SET, neck terry foam with pocket. The Relief Pak moist heat pack is a simple and effective method of applying moist heat to a localized area. Gives at least 3...</t>
+        </is>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="0" t="inlineStr">
@@ -27732,18 +29208,30 @@
           <t>11-1308</t>
         </is>
       </c>
-      <c r="C1157" s="0"/>
+      <c r="C1157" s="0" t="inlineStr">
+        <is>
+          <t>RELIEF PAK MOISTHEAT SET,VELOUR FOAM,CIR</t>
+        </is>
+      </c>
       <c r="D1157" s="0" t="n">
         <v>28.23</v>
       </c>
-      <c r="E1157" s="0"/>
+      <c r="E1157" s="0" t="n">
+        <v>20.89</v>
+      </c>
       <c r="F1157" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1157" s="0"/>
-      <c r="H1157" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557098</t>
+        </is>
+      </c>
+      <c r="G1157" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1157" s="0" t="inlineStr">
+        <is>
+          <t>Relief Pak moist heat SET, circular terry foam</t>
+        </is>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="0" t="inlineStr">
@@ -27780,18 +29268,30 @@
           <t>11-1010</t>
         </is>
       </c>
-      <c r="C1159" s="0"/>
+      <c r="C1159" s="0" t="inlineStr">
+        <is>
+          <t>RELIEF PAK COLD PACK COVER,STD (13X16")</t>
+        </is>
+      </c>
       <c r="D1159" s="0" t="n">
         <v>11.96</v>
       </c>
-      <c r="E1159" s="0"/>
+      <c r="E1159" s="0" t="n">
+        <v>7.68</v>
+      </c>
       <c r="F1159" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1159" s="0"/>
-      <c r="H1159" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055995212</t>
+        </is>
+      </c>
+      <c r="G1159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1159" s="0" t="inlineStr">
+        <is>
+          <t>Relief Pak cold pack cover, standard. The Relief Pak re-usable cold pack offers an effective method of applying cold therapy to a localized area. Place pack in a chilling unit or f...</t>
+        </is>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="0" t="inlineStr">
@@ -27828,18 +29328,30 @@
           <t>11-1011</t>
         </is>
       </c>
-      <c r="C1161" s="0"/>
+      <c r="C1161" s="0" t="inlineStr">
+        <is>
+          <t>RELIEF PAK COLD PACK COVER,NECK (9X25")</t>
+        </is>
+      </c>
       <c r="D1161" s="0" t="n">
         <v>14.35</v>
       </c>
-      <c r="E1161" s="0"/>
+      <c r="E1161" s="0" t="n">
+        <v>7.68</v>
+      </c>
       <c r="F1161" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1161" s="0"/>
-      <c r="H1161" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556789</t>
+        </is>
+      </c>
+      <c r="G1161" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1161" s="0" t="inlineStr">
+        <is>
+          <t>Relief Pak cold pack cover, neck. The Relief Pak re-usable cold pack offers an effective method of applying cold therapy to a localized area. Place pack in a chilling unit or freez...</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="0" t="inlineStr">
@@ -28020,18 +29532,30 @@
           <t>10-5094</t>
         </is>
       </c>
-      <c r="C1169" s="0"/>
+      <c r="C1169" s="0" t="inlineStr">
+        <is>
+          <t>CANDO EXER. BAND/TUBE WALL RAILING,6 FT.</t>
+        </is>
+      </c>
       <c r="D1169" s="0" t="n">
         <v>210.54</v>
       </c>
-      <c r="E1169" s="0"/>
+      <c r="E1169" s="0" t="n">
+        <v>158.28</v>
+      </c>
       <c r="F1169" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1169" s="0"/>
-      <c r="H1169" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994829</t>
+        </is>
+      </c>
+      <c r="G1169" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1169" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band/tubing wall railing, 6 feet. The Cando WalSlide exerciser makes exercise with resistive band and tubing more versatile and easier than ever! Easy assembly, simp...</t>
+        </is>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="0" t="inlineStr">
@@ -28044,18 +29568,30 @@
           <t>10-0962</t>
         </is>
       </c>
-      <c r="C1170" s="0"/>
+      <c r="C1170" s="0" t="inlineStr">
+        <is>
+          <t>X10SOR FINGER EXER.R,ADD. COMFORT PAD</t>
+        </is>
+      </c>
       <c r="D1170" s="0" t="n">
         <v>2.87</v>
       </c>
-      <c r="E1170" s="0"/>
+      <c r="E1170" s="0" t="n">
+        <v>2.25</v>
+      </c>
       <c r="F1170" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1170" s="0"/>
-      <c r="H1170" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994286</t>
+        </is>
+      </c>
+      <c r="G1170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1170" s="0" t="inlineStr">
+        <is>
+          <t>the Xtensor finger exerciser, additional comfort pad. Repetitive finger and grip motion issues are a significant and growing problem.</t>
+        </is>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="0" t="inlineStr">
@@ -28092,18 +29628,30 @@
           <t>30-1000</t>
         </is>
       </c>
-      <c r="C1172" s="0"/>
+      <c r="C1172" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (4X24 INCH)</t>
+        </is>
+      </c>
       <c r="D1172" s="0" t="n">
         <v>119.63</v>
       </c>
-      <c r="E1172" s="0"/>
+      <c r="E1172" s="0" t="n">
+        <v>69.86</v>
+      </c>
       <c r="F1172" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1172" s="0"/>
-      <c r="H1172" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554714</t>
+        </is>
+      </c>
+      <c r="G1172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1172" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (4x24 inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="0" t="inlineStr">
@@ -28116,18 +29664,30 @@
           <t>30-1001</t>
         </is>
       </c>
-      <c r="C1173" s="0"/>
+      <c r="C1173" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (6X24 INCH)</t>
+        </is>
+      </c>
       <c r="D1173" s="0" t="n">
         <v>143.55</v>
       </c>
-      <c r="E1173" s="0"/>
+      <c r="E1173" s="0" t="n">
+        <v>83.84</v>
+      </c>
       <c r="F1173" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1173" s="0"/>
-      <c r="H1173" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556546</t>
+        </is>
+      </c>
+      <c r="G1173" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1173" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (6x24 inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="0" t="inlineStr">
@@ -28140,18 +29700,30 @@
           <t>30-1002</t>
         </is>
       </c>
-      <c r="C1174" s="0"/>
+      <c r="C1174" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (8X24 INCH)</t>
+        </is>
+      </c>
       <c r="D1174" s="0" t="n">
         <v>181.83</v>
       </c>
-      <c r="E1174" s="0"/>
+      <c r="E1174" s="0" t="n">
+        <v>107.13</v>
+      </c>
       <c r="F1174" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1174" s="0"/>
-      <c r="H1174" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553337</t>
+        </is>
+      </c>
+      <c r="G1174" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1174" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (8x24 inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="0" t="inlineStr">
@@ -28164,18 +29736,30 @@
           <t>30-1003</t>
         </is>
       </c>
-      <c r="C1175" s="0"/>
+      <c r="C1175" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (8X36 INCH)</t>
+        </is>
+      </c>
       <c r="D1175" s="0" t="n">
         <v>234.46</v>
       </c>
-      <c r="E1175" s="0"/>
+      <c r="E1175" s="0" t="n">
+        <v>135.08</v>
+      </c>
       <c r="F1175" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1175" s="0"/>
-      <c r="H1175" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556551</t>
+        </is>
+      </c>
+      <c r="G1175" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1175" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (8x36 inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="0" t="inlineStr">
@@ -28188,18 +29772,30 @@
           <t>30-1004</t>
         </is>
       </c>
-      <c r="C1176" s="0"/>
+      <c r="C1176" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (10X36INCH)</t>
+        </is>
+      </c>
       <c r="D1176" s="0" t="n">
         <v>258.39</v>
       </c>
-      <c r="E1176" s="0"/>
+      <c r="E1176" s="0" t="n">
+        <v>156.04</v>
+      </c>
       <c r="F1176" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1176" s="0"/>
-      <c r="H1176" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556676</t>
+        </is>
+      </c>
+      <c r="G1176" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1176" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (10x36inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="0" t="inlineStr">
@@ -28212,18 +29808,30 @@
           <t>30-1005</t>
         </is>
       </c>
-      <c r="C1177" s="0"/>
+      <c r="C1177" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (12X36INCH)</t>
+        </is>
+      </c>
       <c r="D1177" s="0" t="n">
         <v>311.03</v>
       </c>
-      <c r="E1177" s="0"/>
+      <c r="E1177" s="0" t="n">
+        <v>190.97</v>
+      </c>
       <c r="F1177" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1177" s="0"/>
-      <c r="H1177" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554720</t>
+        </is>
+      </c>
+      <c r="G1177" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1177" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (12x36inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="0" t="inlineStr">
@@ -28236,18 +29844,30 @@
           <t>30-1006</t>
         </is>
       </c>
-      <c r="C1178" s="0"/>
+      <c r="C1178" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (12X48INCH)</t>
+        </is>
+      </c>
       <c r="D1178" s="0" t="n">
         <v>411.51</v>
       </c>
-      <c r="E1178" s="0"/>
+      <c r="E1178" s="0" t="n">
+        <v>246.87</v>
+      </c>
       <c r="F1178" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1178" s="0"/>
-      <c r="H1178" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554889</t>
+        </is>
+      </c>
+      <c r="G1178" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1178" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (12x48inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="0" t="inlineStr">
@@ -28260,18 +29880,30 @@
           <t>30-1007</t>
         </is>
       </c>
-      <c r="C1179" s="0"/>
+      <c r="C1179" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (14X48INCH)</t>
+        </is>
+      </c>
       <c r="D1179" s="0" t="n">
         <v>440.22</v>
       </c>
-      <c r="E1179" s="0"/>
+      <c r="E1179" s="0" t="n">
+        <v>279.48</v>
+      </c>
       <c r="F1179" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1179" s="0"/>
-      <c r="H1179" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554721</t>
+        </is>
+      </c>
+      <c r="G1179" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1179" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (14x48inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="0" t="inlineStr">
@@ -28284,18 +29916,30 @@
           <t>30-1008</t>
         </is>
       </c>
-      <c r="C1180" s="0"/>
+      <c r="C1180" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS ROLL (16X48INCH)</t>
+        </is>
+      </c>
       <c r="D1180" s="0" t="n">
         <v>564.63</v>
       </c>
-      <c r="E1180" s="0"/>
+      <c r="E1180" s="0" t="n">
+        <v>323.73</v>
+      </c>
       <c r="F1180" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1180" s="0"/>
-      <c r="H1180" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556559</t>
+        </is>
+      </c>
+      <c r="G1180" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1180" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders roll (16x48inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="0" t="inlineStr">
@@ -28308,18 +29952,30 @@
           <t>30-1010</t>
         </is>
       </c>
-      <c r="C1181" s="0"/>
+      <c r="C1181" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (4X20X22INCH)</t>
+        </is>
+      </c>
       <c r="D1181" s="0" t="n">
         <v>196.18</v>
       </c>
-      <c r="E1181" s="0"/>
+      <c r="E1181" s="0" t="n">
+        <v>111.79</v>
+      </c>
       <c r="F1181" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1181" s="0"/>
-      <c r="H1181" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555665</t>
+        </is>
+      </c>
+      <c r="G1181" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1181" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (4x20x22inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="0" t="inlineStr">
@@ -28332,18 +29988,30 @@
           <t>30-1011</t>
         </is>
       </c>
-      <c r="C1182" s="0"/>
+      <c r="C1182" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (6X20X22INCH)</t>
+        </is>
+      </c>
       <c r="D1182" s="0" t="n">
         <v>200.96</v>
       </c>
-      <c r="E1182" s="0"/>
+      <c r="E1182" s="0" t="n">
+        <v>114.11</v>
+      </c>
       <c r="F1182" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1182" s="0"/>
-      <c r="H1182" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555398</t>
+        </is>
+      </c>
+      <c r="G1182" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1182" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (6x20x22inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="0" t="inlineStr">
@@ -28356,18 +30024,30 @@
           <t>30-1012</t>
         </is>
       </c>
-      <c r="C1183" s="0"/>
+      <c r="C1183" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (8X20X22INCH)</t>
+        </is>
+      </c>
       <c r="D1183" s="0" t="n">
         <v>224.89</v>
       </c>
-      <c r="E1183" s="0"/>
+      <c r="E1183" s="0" t="n">
+        <v>125.76</v>
+      </c>
       <c r="F1183" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1183" s="0"/>
-      <c r="H1183" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555671</t>
+        </is>
+      </c>
+      <c r="G1183" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1183" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (8x20x22inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="0" t="inlineStr">
@@ -28380,18 +30060,30 @@
           <t>30-1013</t>
         </is>
       </c>
-      <c r="C1184" s="0"/>
+      <c r="C1184" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (10X20X22INCH)</t>
+        </is>
+      </c>
       <c r="D1184" s="0" t="n">
         <v>258.39</v>
       </c>
-      <c r="E1184" s="0"/>
+      <c r="E1184" s="0" t="n">
+        <v>153.71</v>
+      </c>
       <c r="F1184" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1184" s="0"/>
-      <c r="H1184" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555399</t>
+        </is>
+      </c>
+      <c r="G1184" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1184" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (10x20x22inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="0" t="inlineStr">
@@ -28404,18 +30096,30 @@
           <t>30-1014</t>
         </is>
       </c>
-      <c r="C1185" s="0"/>
+      <c r="C1185" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (6X24X26INCH)</t>
+        </is>
+      </c>
       <c r="D1185" s="0" t="n">
         <v>248.82</v>
       </c>
-      <c r="E1185" s="0"/>
+      <c r="E1185" s="0" t="n">
+        <v>146.72</v>
+      </c>
       <c r="F1185" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1185" s="0"/>
-      <c r="H1185" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553749</t>
+        </is>
+      </c>
+      <c r="G1185" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1185" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (6x24x26inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="0" t="inlineStr">
@@ -28428,18 +30132,30 @@
           <t>30-1015</t>
         </is>
       </c>
-      <c r="C1186" s="0"/>
+      <c r="C1186" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (8X24X26INCH)</t>
+        </is>
+      </c>
       <c r="D1186" s="0" t="n">
         <v>277.53</v>
       </c>
-      <c r="E1186" s="0"/>
+      <c r="E1186" s="0" t="n">
+        <v>163.03</v>
+      </c>
       <c r="F1186" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1186" s="0"/>
-      <c r="H1186" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556695</t>
+        </is>
+      </c>
+      <c r="G1186" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1186" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (8x24x26inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="0" t="inlineStr">
@@ -28452,18 +30168,30 @@
           <t>30-1016</t>
         </is>
       </c>
-      <c r="C1187" s="0"/>
+      <c r="C1187" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (10X24X26INCH)</t>
+        </is>
+      </c>
       <c r="D1187" s="0" t="n">
         <v>334.94</v>
       </c>
-      <c r="E1187" s="0"/>
+      <c r="E1187" s="0" t="n">
+        <v>197.96</v>
+      </c>
       <c r="F1187" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1187" s="0"/>
-      <c r="H1187" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555400</t>
+        </is>
+      </c>
+      <c r="G1187" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1187" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (10x24x26inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="0" t="inlineStr">
@@ -28476,18 +30204,30 @@
           <t>30-1017</t>
         </is>
       </c>
-      <c r="C1188" s="0"/>
+      <c r="C1188" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS WEDGE (12X24X26INCH)</t>
+        </is>
+      </c>
       <c r="D1188" s="0" t="n">
         <v>354.09</v>
       </c>
-      <c r="E1188" s="0"/>
+      <c r="E1188" s="0" t="n">
+        <v>218.92</v>
+      </c>
       <c r="F1188" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1188" s="0"/>
-      <c r="H1188" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553340</t>
+        </is>
+      </c>
+      <c r="G1188" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1188" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders wedge (12x24x26inch)</t>
+        </is>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="0" t="inlineStr">
@@ -28500,18 +30240,30 @@
           <t>30-1230</t>
         </is>
       </c>
-      <c r="C1189" s="0"/>
+      <c r="C1189" s="0" t="inlineStr">
+        <is>
+          <t>SKILLBUILDERS STABILITY POSITIONING ROLL</t>
+        </is>
+      </c>
       <c r="D1189" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E1189" s="0"/>
+      <c r="E1189" s="0" t="n">
+        <v>44.24</v>
+      </c>
       <c r="F1189" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1189" s="0"/>
-      <c r="H1189" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554824</t>
+        </is>
+      </c>
+      <c r="G1189" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1189" s="0" t="inlineStr">
+        <is>
+          <t>Skillbuilders stability positioning half roll, 4"x18"(0")</t>
+        </is>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="0" t="inlineStr">
@@ -28668,18 +30420,30 @@
           <t>30-2280</t>
         </is>
       </c>
-      <c r="C1196" s="0"/>
+      <c r="C1196" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HIGH-DENSITY BLACK ROLLER, 6 X 36"</t>
+        </is>
+      </c>
       <c r="D1196" s="0" t="n">
         <v>21.53</v>
       </c>
-      <c r="E1196" s="0"/>
+      <c r="E1196" s="0" t="n">
+        <v>16.47</v>
+      </c>
       <c r="F1196" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1196" s="0"/>
-      <c r="H1196" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553273</t>
+        </is>
+      </c>
+      <c r="G1196" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1196" s="0" t="inlineStr">
+        <is>
+          <t>Cando high-density black roller, 6"x36"</t>
+        </is>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="0" t="inlineStr">
@@ -28716,18 +30480,30 @@
           <t>30-2290</t>
         </is>
       </c>
-      <c r="C1198" s="0"/>
+      <c r="C1198" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HIGH-DENSITY BLACK HALF ROLL,6X36"</t>
+        </is>
+      </c>
       <c r="D1198" s="0" t="n">
         <v>15.08</v>
       </c>
-      <c r="E1198" s="0"/>
+      <c r="E1198" s="0" t="n">
+        <v>9.84</v>
+      </c>
       <c r="F1198" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1198" s="0"/>
-      <c r="H1198" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554861</t>
+        </is>
+      </c>
+      <c r="G1198" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1198" s="0" t="inlineStr">
+        <is>
+          <t>Cando high-density black half roller, 6"x36"</t>
+        </is>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="0" t="inlineStr">
@@ -28764,18 +30540,30 @@
           <t>30-2281</t>
         </is>
       </c>
-      <c r="C1200" s="0"/>
+      <c r="C1200" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HIGH-DENSITY BLACK ROLLER, 6 X 12"</t>
+        </is>
+      </c>
       <c r="D1200" s="0" t="n">
         <v>10.76</v>
       </c>
-      <c r="E1200" s="0"/>
+      <c r="E1200" s="0" t="n">
+        <v>6.62</v>
+      </c>
       <c r="F1200" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1200" s="0"/>
-      <c r="H1200" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553842</t>
+        </is>
+      </c>
+      <c r="G1200" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1200" s="0" t="inlineStr">
+        <is>
+          <t>Cando high-density black roller, 6"x12"</t>
+        </is>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="0" t="inlineStr">
@@ -28812,18 +30600,30 @@
           <t>30-2291</t>
         </is>
       </c>
-      <c r="C1202" s="0"/>
+      <c r="C1202" s="0" t="inlineStr">
+        <is>
+          <t>CANDO HIGH-DENSITY BLACK HALF-ROLL,6X12"</t>
+        </is>
+      </c>
       <c r="D1202" s="0" t="n">
         <v>7.56</v>
       </c>
-      <c r="E1202" s="0"/>
+      <c r="E1202" s="0" t="n">
+        <v>4.55</v>
+      </c>
       <c r="F1202" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1202" s="0"/>
-      <c r="H1202" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556439</t>
+        </is>
+      </c>
+      <c r="G1202" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1202" s="0" t="inlineStr">
+        <is>
+          <t>Cando high-density black half-roller, 6"x12"</t>
+        </is>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="0" t="inlineStr">
@@ -28836,18 +30636,30 @@
           <t>10-1615</t>
         </is>
       </c>
-      <c r="C1203" s="0"/>
+      <c r="C1203" s="0" t="inlineStr">
+        <is>
+          <t>CANDO JUMBO WATE BAR, 15 LB, LIGHT BLUE</t>
+        </is>
+      </c>
       <c r="D1203" s="0" t="n">
         <v>44.26</v>
       </c>
-      <c r="E1203" s="0"/>
+      <c r="E1203" s="0" t="n">
+        <v>41.91</v>
+      </c>
       <c r="F1203" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1203" s="0"/>
-      <c r="H1203" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556850</t>
+        </is>
+      </c>
+      <c r="G1203" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1203" s="0" t="inlineStr">
+        <is>
+          <t>Cando Wate bar, 15 pound. The easy-to-grip Cando exercise weight bars come in weights ranging from 1 pound to 25 pounds. Cando bars are used in the supine, sitting or standing posi...</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="0" t="inlineStr">
@@ -28860,18 +30672,30 @@
           <t>10-1617</t>
         </is>
       </c>
-      <c r="C1204" s="0"/>
+      <c r="C1204" s="0" t="inlineStr">
+        <is>
+          <t>CANDO JUMBO WATE BAR, 20 LB, BLACK</t>
+        </is>
+      </c>
       <c r="D1204" s="0" t="n">
         <v>51.44</v>
       </c>
-      <c r="E1204" s="0"/>
+      <c r="E1204" s="0" t="n">
+        <v>48.9</v>
+      </c>
       <c r="F1204" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1204" s="0"/>
-      <c r="H1204" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553392</t>
+        </is>
+      </c>
+      <c r="G1204" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1204" s="0" t="inlineStr">
+        <is>
+          <t>Cando Wate bar, 20 pound. The easy-to-grip Cando exercise weight bars come in weights ranging from 1 pound to 25 pounds. Cando bars are used in the supine, sitting or standing posi...</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="0" t="inlineStr">
@@ -28884,18 +30708,30 @@
           <t>10-5104</t>
         </is>
       </c>
-      <c r="C1205" s="0"/>
+      <c r="C1205" s="0" t="inlineStr">
+        <is>
+          <t>CANDO UNI. EXER.BAND RACK,HORIZONT 5 ROL</t>
+        </is>
+      </c>
       <c r="D1205" s="0" t="n">
         <v>167.48</v>
       </c>
-      <c r="E1205" s="0"/>
+      <c r="E1205" s="0" t="n">
+        <v>101.75</v>
+      </c>
       <c r="F1205" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1205" s="0"/>
-      <c r="H1205" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555446</t>
+        </is>
+      </c>
+      <c r="G1205" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1205" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band rack, horizontal, 5 roll universal. Pre-assembled, light-weight (12 pounds) stackable plastic exercise band rack holds 5 50-yard rolls of Cando band (or any oth...</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="0" t="inlineStr">
@@ -28908,18 +30744,30 @@
           <t>12-0400</t>
         </is>
       </c>
-      <c r="C1206" s="0"/>
+      <c r="C1206" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE BACK,LEG,CHEST DYNAMOMETER,660</t>
+        </is>
+      </c>
       <c r="D1206" s="0" t="n">
         <v>526.35</v>
       </c>
-      <c r="E1206" s="0"/>
+      <c r="E1206" s="0" t="n">
+        <v>397.97</v>
+      </c>
       <c r="F1206" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1206" s="0"/>
-      <c r="H1206" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556624</t>
+        </is>
+      </c>
+      <c r="G1206" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1206" s="0" t="inlineStr">
+        <is>
+          <t>Baseline back, leg, chest dynamometer, adult, 660lb.. Measure strength of back, leg and chest. Base provides secure footing. Chain length is adjusted to accommodate for height diff...</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="0" t="inlineStr">
@@ -28980,18 +30828,30 @@
           <t>12-0240</t>
         </is>
       </c>
-      <c r="C1209" s="0"/>
+      <c r="C1209" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE STD HYDRAULIC HAND DYNAMOMETER</t>
+        </is>
+      </c>
       <c r="D1209" s="0" t="n">
         <v>311.03</v>
       </c>
-      <c r="E1209" s="0"/>
+      <c r="E1209" s="0" t="n">
+        <v>235.04</v>
+      </c>
       <c r="F1209" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1209" s="0"/>
-      <c r="H1209" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557092</t>
+        </is>
+      </c>
+      <c r="G1209" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1209" s="0" t="inlineStr">
+        <is>
+          <t>Baseline hydraulic hand dynamometer, 200lb. . The 200 pound standard head Baseline hand dynamometer has become a popular tool used by therapists all across the world.</t>
+        </is>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="0" t="inlineStr">
@@ -29004,18 +30864,30 @@
           <t>12-0235</t>
         </is>
       </c>
-      <c r="C1210" s="0"/>
+      <c r="C1210" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE STD HYDRAULIC PINCH GAUGE,50LB.</t>
+        </is>
+      </c>
       <c r="D1210" s="0" t="n">
         <v>239.25</v>
       </c>
-      <c r="E1210" s="0"/>
+      <c r="E1210" s="0" t="n">
+        <v>180.79</v>
+      </c>
       <c r="F1210" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1210" s="0"/>
-      <c r="H1210" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555402</t>
+        </is>
+      </c>
+      <c r="G1210" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1210" s="0" t="inlineStr">
+        <is>
+          <t>Baseline hydraulic pinch gauge, 50lb.. The 50 pound standard head hydraulic pinch gauge has a 21/2 inch diameter head and offers accurate and repeatable pinch strength measurements...</t>
+        </is>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="0" t="inlineStr">
@@ -29076,18 +30948,30 @@
           <t>12-0201</t>
         </is>
       </c>
-      <c r="C1213" s="0"/>
+      <c r="C1213" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE PINCH GAUGE W/ CASE,RED,60LB.</t>
+        </is>
+      </c>
       <c r="D1213" s="0" t="n">
         <v>191.4</v>
       </c>
-      <c r="E1213" s="0"/>
+      <c r="E1213" s="0" t="n">
+        <v>135.67</v>
+      </c>
       <c r="F1213" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1213" s="0"/>
-      <c r="H1213" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553710</t>
+        </is>
+      </c>
+      <c r="G1213" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1213" s="0" t="inlineStr">
+        <is>
+          <t>Baseline pinch gauge with case, red, 60lb.. Measure tip, key and palmer pinch strength in both pounds and kilograms. Measurements are accurate and repeatable. Results are consisten...</t>
+        </is>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="0" t="inlineStr">
@@ -29100,18 +30984,30 @@
           <t>12-0200</t>
         </is>
       </c>
-      <c r="C1214" s="0"/>
+      <c r="C1214" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE PINCH GAUGE W/ CASE,BLUE,30LB.</t>
+        </is>
+      </c>
       <c r="D1214" s="0" t="n">
         <v>191.4</v>
       </c>
-      <c r="E1214" s="0"/>
+      <c r="E1214" s="0" t="n">
+        <v>135.67</v>
+      </c>
       <c r="F1214" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1214" s="0"/>
-      <c r="H1214" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555396</t>
+        </is>
+      </c>
+      <c r="G1214" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1214" s="0" t="inlineStr">
+        <is>
+          <t>Baseline pinch gauge with case, blue, 30lb.. Measure tip, key and palmer pinch strength in both pounds and kilograms. Measurements are accurate and repeatable. Results are consiste...</t>
+        </is>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="0" t="inlineStr">
@@ -29244,18 +31140,30 @@
           <t>12-0398</t>
         </is>
       </c>
-      <c r="C1220" s="0"/>
+      <c r="C1220" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 100LB. PUSH-PULL DYNAMOMETER</t>
+        </is>
+      </c>
       <c r="D1220" s="0" t="n">
         <v>933.08</v>
       </c>
-      <c r="E1220" s="0"/>
+      <c r="E1220" s="0" t="n">
+        <v>596.64</v>
+      </c>
       <c r="F1220" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1220" s="0"/>
-      <c r="H1220" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553299</t>
+        </is>
+      </c>
+      <c r="G1220" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1220" s="0" t="inlineStr">
+        <is>
+          <t>Baseline 100lb. universal digital push-pull dynamometer. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline and Jamar hand dynam...</t>
+        </is>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="0" t="inlineStr">
@@ -29268,18 +31176,30 @@
           <t>12-0394</t>
         </is>
       </c>
-      <c r="C1221" s="0"/>
+      <c r="C1221" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 250LB. UNIVERSAL PUSH-PULL DYNA</t>
+        </is>
+      </c>
       <c r="D1221" s="0" t="n">
         <v>717.75</v>
       </c>
-      <c r="E1221" s="0"/>
+      <c r="E1221" s="0" t="n">
+        <v>542.69</v>
+      </c>
       <c r="F1221" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1221" s="0"/>
-      <c r="H1221" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553729</t>
+        </is>
+      </c>
+      <c r="G1221" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1221" s="0" t="inlineStr">
+        <is>
+          <t>Baseline 250lb. universal push-pull dynamometer. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline and Jamar hand dynamometers ...</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="0" t="inlineStr">
@@ -29292,18 +31212,30 @@
           <t>12-0387</t>
         </is>
       </c>
-      <c r="C1222" s="0"/>
+      <c r="C1222" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 500LB. PUSH-PULL DYNAMOMETER</t>
+        </is>
+      </c>
       <c r="D1222" s="0" t="n">
         <v>1076.62</v>
       </c>
-      <c r="E1222" s="0"/>
+      <c r="E1222" s="0" t="n">
+        <v>687.41</v>
+      </c>
       <c r="F1222" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1222" s="0"/>
-      <c r="H1222" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555415</t>
+        </is>
+      </c>
+      <c r="G1222" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1222" s="0" t="inlineStr">
+        <is>
+          <t>Baseline 500lb. universal digital push-pull dynamometer. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline and Jamar hand dynam...</t>
+        </is>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="0" t="inlineStr">
@@ -29772,18 +31704,30 @@
           <t>12-1481</t>
         </is>
       </c>
-      <c r="C1242" s="0"/>
+      <c r="C1242" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 3-POINT DISCRIMINATOR</t>
+        </is>
+      </c>
       <c r="D1242" s="0" t="n">
         <v>40.67</v>
       </c>
-      <c r="E1242" s="0"/>
+      <c r="E1242" s="0" t="n">
+        <v>30.74</v>
+      </c>
       <c r="F1242" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1242" s="0"/>
-      <c r="H1242" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553320</t>
+        </is>
+      </c>
+      <c r="G1242" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1242" s="0" t="inlineStr">
+        <is>
+          <t>Baseline three-point discriminator (aesthesiometer). Evaluate cutaneous sensitivity and touch threshold. Third point permits alternating between single and double point stimulation...</t>
+        </is>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="0" t="inlineStr">
@@ -29820,18 +31764,30 @@
           <t>10-0204</t>
         </is>
       </c>
-      <c r="C1244" s="0"/>
+      <c r="C1244" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 1 1/2 POUND, OLIVE</t>
+        </is>
+      </c>
       <c r="D1244" s="0" t="n">
         <v>10.52</v>
       </c>
-      <c r="E1244" s="0"/>
+      <c r="E1244" s="0" t="n">
+        <v>7.03</v>
+      </c>
       <c r="F1244" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1244" s="0"/>
-      <c r="H1244" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554301</t>
+        </is>
+      </c>
+      <c r="G1244" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1244" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 1 1/2 pound, olive. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wrist...</t>
+        </is>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="0" t="inlineStr">
@@ -29868,18 +31824,30 @@
           <t>10-0206</t>
         </is>
       </c>
-      <c r="C1246" s="0"/>
+      <c r="C1246" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 2 1/2 POUND, RED</t>
+        </is>
+      </c>
       <c r="D1246" s="0" t="n">
         <v>12.44</v>
       </c>
-      <c r="E1246" s="0"/>
+      <c r="E1246" s="0" t="n">
+        <v>8.35</v>
+      </c>
       <c r="F1246" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1246" s="0"/>
-      <c r="H1246" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556284</t>
+        </is>
+      </c>
+      <c r="G1246" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1246" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 2 1/2 pound, red. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years.</t>
+        </is>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="0" t="inlineStr">
@@ -30012,18 +31980,30 @@
           <t>10-0212</t>
         </is>
       </c>
-      <c r="C1252" s="0"/>
+      <c r="C1252" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 7 1/2 POUND, ORANGE</t>
+        </is>
+      </c>
       <c r="D1252" s="0" t="n">
         <v>22.01</v>
       </c>
-      <c r="E1252" s="0"/>
+      <c r="E1252" s="0" t="n">
+        <v>14.95</v>
+      </c>
       <c r="F1252" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1252" s="0"/>
-      <c r="H1252" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554028</t>
+        </is>
+      </c>
+      <c r="G1252" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1252" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 7 1/2 pound, orange. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wris...</t>
+        </is>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="0" t="inlineStr">
@@ -30036,18 +32016,30 @@
           <t>10-0213</t>
         </is>
       </c>
-      <c r="C1253" s="0"/>
+      <c r="C1253" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 8 POUND, RED</t>
+        </is>
+      </c>
       <c r="D1253" s="0" t="n">
         <v>22.96</v>
       </c>
-      <c r="E1253" s="0"/>
+      <c r="E1253" s="0" t="n">
+        <v>15.83</v>
+      </c>
       <c r="F1253" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1253" s="0"/>
-      <c r="H1253" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556285</t>
+        </is>
+      </c>
+      <c r="G1253" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1253" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 8 pound, red. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wrist... an...</t>
+        </is>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="0" t="inlineStr">
@@ -30108,18 +32100,30 @@
           <t>10-0216</t>
         </is>
       </c>
-      <c r="C1256" s="0"/>
+      <c r="C1256" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 12 1/2 POUND, OLIVE</t>
+        </is>
+      </c>
       <c r="D1256" s="0" t="n">
         <v>31.58</v>
       </c>
-      <c r="E1256" s="0"/>
+      <c r="E1256" s="0" t="n">
+        <v>21.55</v>
+      </c>
       <c r="F1256" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1256" s="0"/>
-      <c r="H1256" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554938</t>
+        </is>
+      </c>
+      <c r="G1256" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1256" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 12 1/2 pound, olive. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wris...</t>
+        </is>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="0" t="inlineStr">
@@ -30132,18 +32136,30 @@
           <t>10-0217</t>
         </is>
       </c>
-      <c r="C1257" s="0"/>
+      <c r="C1257" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 15 POUND, TAN</t>
+        </is>
+      </c>
       <c r="D1257" s="0" t="n">
         <v>36.36</v>
       </c>
-      <c r="E1257" s="0"/>
+      <c r="E1257" s="0" t="n">
+        <v>25.07</v>
+      </c>
       <c r="F1257" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1257" s="0"/>
-      <c r="H1257" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553470</t>
+        </is>
+      </c>
+      <c r="G1257" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1257" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 15 pound, tan. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wrist... a...</t>
+        </is>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="0" t="inlineStr">
@@ -30156,18 +32172,30 @@
           <t>10-0250</t>
         </is>
       </c>
-      <c r="C1258" s="0"/>
+      <c r="C1258" s="0" t="inlineStr">
+        <is>
+          <t>CUFF FUNCTIONAL 7 PIECE SET</t>
+        </is>
+      </c>
       <c r="D1258" s="0" t="n">
         <v>107.66</v>
       </c>
-      <c r="E1258" s="0"/>
+      <c r="E1258" s="0" t="n">
+        <v>74.78</v>
+      </c>
       <c r="F1258" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1258" s="0"/>
-      <c r="H1258" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556911</t>
+        </is>
+      </c>
+      <c r="G1258" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1258" s="0" t="inlineStr">
+        <is>
+          <t>FEI functional Cuff weight set (7 pieces 1ea: 1,2,3,4,5,7.5,10). The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years.</t>
+        </is>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="0" t="inlineStr">
@@ -30180,18 +32208,30 @@
           <t>10-0252</t>
         </is>
       </c>
-      <c r="C1259" s="0"/>
+      <c r="C1259" s="0" t="inlineStr">
+        <is>
+          <t>CUFF ECONOMY SET OF 20 PIECES</t>
+        </is>
+      </c>
       <c r="D1259" s="0" t="n">
         <v>217.72</v>
       </c>
-      <c r="E1259" s="0"/>
+      <c r="E1259" s="0" t="n">
+        <v>151.77</v>
+      </c>
       <c r="F1259" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1259" s="0"/>
-      <c r="H1259" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554940</t>
+        </is>
+      </c>
+      <c r="G1259" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1259" s="0" t="inlineStr">
+        <is>
+          <t>FEI economy Cuff weight set (20 pieces) 2 ea. 1/4 - 5. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years.</t>
+        </is>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="0" t="inlineStr">
@@ -30564,18 +32604,30 @@
           <t>10-1744</t>
         </is>
       </c>
-      <c r="C1275" s="0"/>
+      <c r="C1275" s="0" t="inlineStr">
+        <is>
+          <t>MVP 10-BALL RACK WITH ROD FOR MVP SYSTEM</t>
+        </is>
+      </c>
       <c r="D1275" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E1275" s="0"/>
+      <c r="E1275" s="0" t="n">
+        <v>108.53</v>
+      </c>
       <c r="F1275" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1275" s="0"/>
-      <c r="H1275" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993689</t>
+        </is>
+      </c>
+      <c r="G1275" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1275" s="0" t="inlineStr">
+        <is>
+          <t>MVP wall rack for 10 balls with rod</t>
+        </is>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="0" t="inlineStr">
@@ -30588,18 +32640,30 @@
           <t>10-1760</t>
         </is>
       </c>
-      <c r="C1276" s="0"/>
+      <c r="C1276" s="0" t="inlineStr">
+        <is>
+          <t>YEL BALL #1 FOR MVP&amp;MULTI-AXIAL PLATFORM</t>
+        </is>
+      </c>
       <c r="D1276" s="0" t="n">
         <v>9.57</v>
       </c>
-      <c r="E1276" s="0"/>
+      <c r="E1276" s="0" t="n">
+        <v>7.23</v>
+      </c>
       <c r="F1276" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1276" s="0"/>
-      <c r="H1276" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055995208</t>
+        </is>
+      </c>
+      <c r="G1276" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1276" s="0" t="inlineStr">
+        <is>
+          <t>Yellow ball #1 for MVP and MAPS boards. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive training and postural reactions. The li...</t>
+        </is>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="0" t="inlineStr">
@@ -30612,18 +32676,30 @@
           <t>10-1761</t>
         </is>
       </c>
-      <c r="C1277" s="0"/>
+      <c r="C1277" s="0" t="inlineStr">
+        <is>
+          <t>RED BALL #2 FOR MVP&amp;MULTI-AXIAL PLATFORM</t>
+        </is>
+      </c>
       <c r="D1277" s="0" t="n">
         <v>11.96</v>
       </c>
-      <c r="E1277" s="0"/>
+      <c r="E1277" s="0" t="n">
+        <v>10.84</v>
+      </c>
       <c r="F1277" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1277" s="0"/>
-      <c r="H1277" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994106</t>
+        </is>
+      </c>
+      <c r="G1277" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1277" s="0" t="inlineStr">
+        <is>
+          <t>Red ball #2 for MVP and MAPS boards. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive training and postural reactions.</t>
+        </is>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="0" t="inlineStr">
@@ -30636,18 +32712,30 @@
           <t>10-1762</t>
         </is>
       </c>
-      <c r="C1278" s="0"/>
+      <c r="C1278" s="0" t="inlineStr">
+        <is>
+          <t>GRN BALL #3 FOR MVP&amp;MULTI-AXIAL PLATFORM</t>
+        </is>
+      </c>
       <c r="D1278" s="0" t="n">
         <v>14.35</v>
       </c>
-      <c r="E1278" s="0"/>
+      <c r="E1278" s="0" t="n">
+        <v>14.46</v>
+      </c>
       <c r="F1278" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1278" s="0"/>
-      <c r="H1278" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993363</t>
+        </is>
+      </c>
+      <c r="G1278" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1278" s="0" t="inlineStr">
+        <is>
+          <t>Green ball #3 for MVP and MAPS boards. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive training and postural reactions.</t>
+        </is>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="0" t="inlineStr">
@@ -30660,18 +32748,30 @@
           <t>10-1763</t>
         </is>
       </c>
-      <c r="C1279" s="0"/>
+      <c r="C1279" s="0" t="inlineStr">
+        <is>
+          <t>BLUE BALL #4 FOR MVP&amp;MULTI-AXIAL PLAT.</t>
+        </is>
+      </c>
       <c r="D1279" s="0" t="n">
         <v>16.74</v>
       </c>
-      <c r="E1279" s="0"/>
+      <c r="E1279" s="0" t="n">
+        <v>18.08</v>
+      </c>
       <c r="F1279" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1279" s="0"/>
-      <c r="H1279" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993802</t>
+        </is>
+      </c>
+      <c r="G1279" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1279" s="0" t="inlineStr">
+        <is>
+          <t>Blue ball #4 for MVP and MAPS boards. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive training and postural reactions. The ligh...</t>
+        </is>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="0" t="inlineStr">
@@ -30684,18 +32784,30 @@
           <t>10-1764</t>
         </is>
       </c>
-      <c r="C1280" s="0"/>
+      <c r="C1280" s="0" t="inlineStr">
+        <is>
+          <t>BLK BALL #5 FOR MVP&amp;MULTI-AXIAL PLATFORM</t>
+        </is>
+      </c>
       <c r="D1280" s="0" t="n">
         <v>19.14</v>
       </c>
-      <c r="E1280" s="0"/>
+      <c r="E1280" s="0" t="n">
+        <v>21.7</v>
+      </c>
       <c r="F1280" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1280" s="0"/>
-      <c r="H1280" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055994703</t>
+        </is>
+      </c>
+      <c r="G1280" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1280" s="0" t="inlineStr">
+        <is>
+          <t>Black ball #5 for MVP and MAPS boards,. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive training and postural reactions. The li...</t>
+        </is>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="0" t="inlineStr">
@@ -30708,18 +32820,30 @@
           <t>10-1776</t>
         </is>
       </c>
-      <c r="C1281" s="0"/>
+      <c r="C1281" s="0" t="inlineStr">
+        <is>
+          <t>CANDO MVP 16" BOARD ONLY,MULTI-VESTIB.</t>
+        </is>
+      </c>
       <c r="D1281" s="0" t="n">
         <v>33.5</v>
       </c>
-      <c r="E1281" s="0"/>
+      <c r="E1281" s="0" t="n">
+        <v>24.86</v>
+      </c>
       <c r="F1281" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1281" s="0"/>
-      <c r="H1281" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993288</t>
+        </is>
+      </c>
+      <c r="G1281" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1281" s="0" t="inlineStr">
+        <is>
+          <t>Cando MVP 16" board only, multi-vestibular board with three pivot positions. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive tr...</t>
+        </is>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="0" t="inlineStr">
@@ -30732,18 +32856,30 @@
           <t>10-1786</t>
         </is>
       </c>
-      <c r="C1282" s="0"/>
+      <c r="C1282" s="0" t="inlineStr">
+        <is>
+          <t>CANDO MVP 20" BOARD ONLY,MULTI-VESTIB.</t>
+        </is>
+      </c>
       <c r="D1282" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1282" s="0"/>
+      <c r="E1282" s="0" t="n">
+        <v>31.65</v>
+      </c>
       <c r="F1282" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1282" s="0"/>
-      <c r="H1282" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993364</t>
+        </is>
+      </c>
+      <c r="G1282" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1282" s="0" t="inlineStr">
+        <is>
+          <t>Cando MVP 20" board only, multi-vestibular board with three pivot positions. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive tr...</t>
+        </is>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="0" t="inlineStr">
@@ -30756,18 +32892,30 @@
           <t>10-1796</t>
         </is>
       </c>
-      <c r="C1283" s="0"/>
+      <c r="C1283" s="0" t="inlineStr">
+        <is>
+          <t>CANDO MVP 30" BOARD ONLY,MULTI-VESTIB.</t>
+        </is>
+      </c>
       <c r="D1283" s="0" t="n">
         <v>57.42</v>
       </c>
-      <c r="E1283" s="0"/>
+      <c r="E1283" s="0" t="n">
+        <v>42.95</v>
+      </c>
       <c r="F1283" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1283" s="0"/>
-      <c r="H1283" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000055993691</t>
+        </is>
+      </c>
+      <c r="G1283" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1283" s="0" t="inlineStr">
+        <is>
+          <t>Cando MVP 30" board only, multi-vestibular board with three pivot positions. The MVP offers an unstable and sensory-stimulating platform to facilitate balance and proprioceptive tr...</t>
+        </is>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="0" t="inlineStr">
@@ -30780,18 +32928,30 @@
           <t>10-5616</t>
         </is>
       </c>
-      <c r="C1284" s="0"/>
+      <c r="C1284" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,SILVER,6 YD</t>
+        </is>
+      </c>
       <c r="D1284" s="0" t="n">
         <v>15.79</v>
       </c>
-      <c r="E1284" s="0"/>
+      <c r="E1284" s="0" t="n">
+        <v>12.45</v>
+      </c>
       <c r="F1284" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1284" s="0"/>
-      <c r="H1284" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052610</t>
+        </is>
+      </c>
+      <c r="G1284" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1284" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, silver, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily ident...</t>
+        </is>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="0" t="inlineStr">
@@ -30804,18 +32964,30 @@
           <t>10-5617</t>
         </is>
       </c>
-      <c r="C1285" s="0"/>
+      <c r="C1285" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXERCISE BAND,GOLD,6 YD</t>
+        </is>
+      </c>
       <c r="D1285" s="0" t="n">
         <v>16.74</v>
       </c>
-      <c r="E1285" s="0"/>
+      <c r="E1285" s="0" t="n">
+        <v>13.26</v>
+      </c>
       <c r="F1285" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1285" s="0"/>
-      <c r="H1285" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052597</t>
+        </is>
+      </c>
+      <c r="G1285" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1285" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, gold, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily identif...</t>
+        </is>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="0" t="inlineStr">
@@ -30828,18 +33000,30 @@
           <t>10-5626</t>
         </is>
       </c>
-      <c r="C1286" s="0"/>
+      <c r="C1286" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,SILVER,50YD</t>
+        </is>
+      </c>
       <c r="D1286" s="0" t="n">
         <v>112.44</v>
       </c>
-      <c r="E1286" s="0"/>
+      <c r="E1286" s="0" t="n">
+        <v>76.37</v>
+      </c>
       <c r="F1286" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1286" s="0"/>
-      <c r="H1286" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556625</t>
+        </is>
+      </c>
+      <c r="G1286" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1286" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, silver, 50 yard dispenser, latex-free . Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is ...</t>
+        </is>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="0" t="inlineStr">
@@ -30852,18 +33036,30 @@
           <t>10-5627</t>
         </is>
       </c>
-      <c r="C1287" s="0"/>
+      <c r="C1287" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,GOLD,50YD</t>
+        </is>
+      </c>
       <c r="D1287" s="0" t="n">
         <v>119.63</v>
       </c>
-      <c r="E1287" s="0"/>
+      <c r="E1287" s="0" t="n">
+        <v>80.39</v>
+      </c>
       <c r="F1287" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1287" s="0"/>
-      <c r="H1287" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053552990</t>
+        </is>
+      </c>
+      <c r="G1287" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1287" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, gold, 50 yard dispenser, latex-free . Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is ea...</t>
+        </is>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="0" t="inlineStr">
@@ -30876,18 +33072,30 @@
           <t>10-1616</t>
         </is>
       </c>
-      <c r="C1288" s="0"/>
+      <c r="C1288" s="0" t="inlineStr">
+        <is>
+          <t>CANDO JUMBO WATE BAR, 17.5 LB, DARK BLUE</t>
+        </is>
+      </c>
       <c r="D1288" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1288" s="0"/>
+      <c r="E1288" s="0" t="n">
+        <v>44.24</v>
+      </c>
       <c r="F1288" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1288" s="0"/>
-      <c r="H1288" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554984</t>
+        </is>
+      </c>
+      <c r="G1288" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1288" s="0" t="inlineStr">
+        <is>
+          <t>Cando Wate bar, 17-1/2 pound. The easy-to-grip Cando exercise weight bars come in weights ranging from 1 pound to 25 pounds.</t>
+        </is>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="0" t="inlineStr">
@@ -30900,18 +33108,30 @@
           <t>10-1618</t>
         </is>
       </c>
-      <c r="C1289" s="0"/>
+      <c r="C1289" s="0" t="inlineStr">
+        <is>
+          <t>CANDO JUMBO WATE BAR, 22.5 LB, SILVER</t>
+        </is>
+      </c>
       <c r="D1289" s="0" t="n">
         <v>55.03</v>
       </c>
-      <c r="E1289" s="0"/>
+      <c r="E1289" s="0" t="n">
+        <v>51.23</v>
+      </c>
       <c r="F1289" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1289" s="0"/>
-      <c r="H1289" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557460</t>
+        </is>
+      </c>
+      <c r="G1289" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1289" s="0" t="inlineStr">
+        <is>
+          <t>Cando Wate bar, 22-1/2 pound. The easy-to-grip Cando exercise weight bars come in weights ranging from 1 pound to 25 pounds. Cando bars are used in the supine, sitting or standing ...</t>
+        </is>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="0" t="inlineStr">
@@ -30972,18 +33192,30 @@
           <t>12-0228</t>
         </is>
       </c>
-      <c r="C1292" s="0"/>
+      <c r="C1292" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE ER,HIRES,LG HEAD, PINCH GAUGE</t>
+        </is>
+      </c>
       <c r="D1292" s="0" t="n">
         <v>287.1</v>
       </c>
-      <c r="E1292" s="0"/>
+      <c r="E1292" s="0" t="n">
+        <v>216.95</v>
+      </c>
       <c r="F1292" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1292" s="0"/>
-      <c r="H1292" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555401</t>
+        </is>
+      </c>
+      <c r="G1292" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1292" s="0" t="inlineStr">
+        <is>
+          <t>Baseline ER, HiRes, large head, hydraulic pinch gauge, 95lb. . The new ER (extended-range) model can measure pinch strength up to 100lbs/45kg. The 31/2 diamete r dial has more meas...</t>
+        </is>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="0" t="inlineStr">
@@ -30996,18 +33228,30 @@
           <t>12-0237</t>
         </is>
       </c>
-      <c r="C1293" s="0"/>
+      <c r="C1293" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE DIGITAL HYDR.PINCH GAUGE,100LB.</t>
+        </is>
+      </c>
       <c r="D1293" s="0" t="n">
         <v>622.05</v>
       </c>
-      <c r="E1293" s="0"/>
+      <c r="E1293" s="0" t="n">
+        <v>470.08</v>
+      </c>
       <c r="F1293" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1293" s="0"/>
-      <c r="H1293" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555403</t>
+        </is>
+      </c>
+      <c r="G1293" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1293" s="0" t="inlineStr">
+        <is>
+          <t>Baseline digital hydraulic pinch gauge, 100lb.. The 100 lb. (45 kg.) digital pinch gauge uses the same hydraulic system but has the added advantage of an easy-to-read LCD display.</t>
+        </is>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="0" t="inlineStr">
@@ -31092,18 +33336,30 @@
           <t>12-0403</t>
         </is>
       </c>
-      <c r="C1297" s="0"/>
+      <c r="C1297" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE BACK,LEG,CHEST DYNAMOMETER,LG</t>
+        </is>
+      </c>
       <c r="D1297" s="0" t="n">
         <v>574.2</v>
       </c>
-      <c r="E1297" s="0"/>
+      <c r="E1297" s="0" t="n">
+        <v>434.15</v>
+      </c>
       <c r="F1297" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1297" s="0"/>
-      <c r="H1297" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553113</t>
+        </is>
+      </c>
+      <c r="G1297" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1297" s="0" t="inlineStr">
+        <is>
+          <t>Baseline back, leg, chest dynamometer, large base, adult, 660lb.. Measure strength of back, leg and chest. Base provides secure footing. Chain length is adjusted to accommodate for...</t>
+        </is>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="0" t="inlineStr">
@@ -31140,18 +33396,30 @@
           <t>12-0247</t>
         </is>
       </c>
-      <c r="C1299" s="0"/>
+      <c r="C1299" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE DIGITAL HYDRAULIC HAND DYNAMOM.</t>
+        </is>
+      </c>
       <c r="D1299" s="0" t="n">
         <v>693.82</v>
       </c>
-      <c r="E1299" s="0"/>
+      <c r="E1299" s="0" t="n">
+        <v>524.32</v>
+      </c>
       <c r="F1299" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1299" s="0"/>
-      <c r="H1299" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553717</t>
+        </is>
+      </c>
+      <c r="G1299" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1299" s="0" t="inlineStr">
+        <is>
+          <t>Baseline digital hydraulic hand dynamometer, 300lb.. The 300 lb. (135 kg) digital hand dynamometer uses the same hydraulic system but has the added advantage of an LCD display.</t>
+        </is>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="0" t="inlineStr">
@@ -31188,18 +33456,30 @@
           <t>12-0399</t>
         </is>
       </c>
-      <c r="C1301" s="0"/>
+      <c r="C1301" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 250LB. PUSH-PULL DYNAMOMETER</t>
+        </is>
+      </c>
       <c r="D1301" s="0" t="n">
         <v>1004.84</v>
       </c>
-      <c r="E1301" s="0"/>
+      <c r="E1301" s="0" t="n">
+        <v>651.23</v>
+      </c>
       <c r="F1301" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1301" s="0"/>
-      <c r="H1301" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553112</t>
+        </is>
+      </c>
+      <c r="G1301" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1301" s="0" t="inlineStr">
+        <is>
+          <t>Baseline 250lb. universal digital push-pull dynamometer. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline and Jamar hand dynam...</t>
+        </is>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="0" t="inlineStr">
@@ -31452,18 +33732,30 @@
           <t>10-0201</t>
         </is>
       </c>
-      <c r="C1312" s="0"/>
+      <c r="C1312" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 1/2 POUND, WALNUT</t>
+        </is>
+      </c>
       <c r="D1312" s="0" t="n">
         <v>8.61</v>
       </c>
-      <c r="E1312" s="0"/>
+      <c r="E1312" s="0" t="n">
+        <v>5.71</v>
+      </c>
       <c r="F1312" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1312" s="0"/>
-      <c r="H1312" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555562</t>
+        </is>
+      </c>
+      <c r="G1312" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1312" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 1/2 pound, walnut. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wrist....</t>
+        </is>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="0" t="inlineStr">
@@ -31476,18 +33768,30 @@
           <t>10-0202</t>
         </is>
       </c>
-      <c r="C1313" s="0"/>
+      <c r="C1313" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 3/4 POUND, ORANGE</t>
+        </is>
+      </c>
       <c r="D1313" s="0" t="n">
         <v>9.1</v>
       </c>
-      <c r="E1313" s="0"/>
+      <c r="E1313" s="0" t="n">
+        <v>6.15</v>
+      </c>
       <c r="F1313" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1313" s="0"/>
-      <c r="H1313" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553458</t>
+        </is>
+      </c>
+      <c r="G1313" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1313" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 3/4 pound, orange. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wrist....</t>
+        </is>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="0" t="inlineStr">
@@ -31500,18 +33804,30 @@
           <t>10-0219</t>
         </is>
       </c>
-      <c r="C1314" s="0"/>
+      <c r="C1314" s="0" t="inlineStr">
+        <is>
+          <t>CUFF WEIGHT, 25 POUND, GREEN</t>
+        </is>
+      </c>
       <c r="D1314" s="0" t="n">
         <v>55.51</v>
       </c>
-      <c r="E1314" s="0"/>
+      <c r="E1314" s="0" t="n">
+        <v>38.27</v>
+      </c>
       <c r="F1314" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1314" s="0"/>
-      <c r="H1314" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554939</t>
+        </is>
+      </c>
+      <c r="G1314" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1314" s="0" t="inlineStr">
+        <is>
+          <t>Cuff weight, 25 pound, green. The Cuff rehabilitation wrist and ankle weight has been proven effective in hospitals for over 30 years. It contours to snugly fit the ankle, wrist......</t>
+        </is>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="0" t="inlineStr">
@@ -31548,18 +33864,30 @@
           <t>10-1731</t>
         </is>
       </c>
-      <c r="C1316" s="0"/>
+      <c r="C1316" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PROFESSIONAL BALANCE SYS.W/BALLS</t>
+        </is>
+      </c>
       <c r="D1316" s="0" t="n">
         <v>406.72</v>
       </c>
-      <c r="E1316" s="0"/>
+      <c r="E1316" s="0" t="n">
+        <v>321.09</v>
+      </c>
       <c r="F1316" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1316" s="0"/>
-      <c r="H1316" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556862</t>
+        </is>
+      </c>
+      <c r="G1316" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1316" s="0" t="inlineStr">
+        <is>
+          <t>MAPS professional balance system with balls, weight rods, weights (10 lb.) and wall rack. Multi-Axis Platform System offers adjustable ROM and weight training to maximize lower bod...</t>
+        </is>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="0" t="inlineStr">
@@ -31596,18 +33924,30 @@
           <t>10-1904</t>
         </is>
       </c>
-      <c r="C1318" s="0"/>
+      <c r="C1318" s="0" t="inlineStr">
+        <is>
+          <t>CANDO MVP 3 BOARD CIRC. SET 10BALLS/RACK</t>
+        </is>
+      </c>
       <c r="D1318" s="0" t="n">
         <v>301.46</v>
       </c>
-      <c r="E1318" s="0"/>
+      <c r="E1318" s="0" t="n">
+        <v>291.68</v>
+      </c>
       <c r="F1318" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1318" s="0"/>
-      <c r="H1318" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000044150736</t>
+        </is>
+      </c>
+      <c r="G1318" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1318" s="0" t="inlineStr">
+        <is>
+          <t>Cando MVP 3 board circular set with 10 balls and rack</t>
+        </is>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="0" t="inlineStr">
@@ -31644,18 +33984,30 @@
           <t>10-5692</t>
         </is>
       </c>
-      <c r="C1320" s="0"/>
+      <c r="C1320" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PERF-100 LATEX-FREE 100YD EXER.RED</t>
+        </is>
+      </c>
       <c r="D1320" s="0" t="n">
         <v>133.98</v>
       </c>
-      <c r="E1320" s="0"/>
+      <c r="E1320" s="0" t="n">
+        <v>100.59</v>
+      </c>
       <c r="F1320" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1320" s="0"/>
-      <c r="H1320" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557121</t>
+        </is>
+      </c>
+      <c r="G1320" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1320" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, red, 100 yard perforated every 5 ft LATEX FREE</t>
+        </is>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="0" t="inlineStr">
@@ -31668,18 +34020,30 @@
           <t>10-5693</t>
         </is>
       </c>
-      <c r="C1321" s="0"/>
+      <c r="C1321" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PERF-100 LATEX-FREE 100YD EXER.GRN</t>
+        </is>
+      </c>
       <c r="D1321" s="0" t="n">
         <v>145.47</v>
       </c>
-      <c r="E1321" s="0"/>
+      <c r="E1321" s="0" t="n">
+        <v>108.54</v>
+      </c>
       <c r="F1321" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1321" s="0"/>
-      <c r="H1321" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557122</t>
+        </is>
+      </c>
+      <c r="G1321" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1321" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, green, 100 yard perforated every 5 ft LATEX FREE</t>
+        </is>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="0" t="inlineStr">
@@ -31692,18 +34056,30 @@
           <t>10-5694</t>
         </is>
       </c>
-      <c r="C1322" s="0"/>
+      <c r="C1322" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PERF-100 LATEX-FREE 100YD BLUE</t>
+        </is>
+      </c>
       <c r="D1322" s="0" t="n">
         <v>156.94</v>
       </c>
-      <c r="E1322" s="0"/>
+      <c r="E1322" s="0" t="n">
+        <v>114.84</v>
+      </c>
       <c r="F1322" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1322" s="0"/>
-      <c r="H1322" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557523</t>
+        </is>
+      </c>
+      <c r="G1322" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1322" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, blue, 100 yard perforated every 5 ft LATEX FREE</t>
+        </is>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="0" t="inlineStr">
@@ -31716,18 +34092,30 @@
           <t>10-5695</t>
         </is>
       </c>
-      <c r="C1323" s="0"/>
+      <c r="C1323" s="0" t="inlineStr">
+        <is>
+          <t>CANDO PERF-100 LATEX-FREE 100YD EXER.BLK</t>
+        </is>
+      </c>
       <c r="D1323" s="0" t="n">
         <v>168.43</v>
       </c>
-      <c r="E1323" s="0"/>
+      <c r="E1323" s="0" t="n">
+        <v>124.33</v>
+      </c>
       <c r="F1323" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1323" s="0"/>
-      <c r="H1323" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557524</t>
+        </is>
+      </c>
+      <c r="G1323" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1323" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, black 100 yard perforated every 5 ft LATEX FREE</t>
+        </is>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="0" t="inlineStr">
@@ -31884,18 +34272,30 @@
           <t>12-0297</t>
         </is>
       </c>
-      <c r="C1330" s="0"/>
+      <c r="C1330" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE PNEUMATIC BULB COMBO</t>
+        </is>
+      </c>
       <c r="D1330" s="0" t="n">
         <v>143.55</v>
       </c>
-      <c r="E1330" s="0"/>
+      <c r="E1330" s="0" t="n">
+        <v>112.82</v>
+      </c>
       <c r="F1330" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1330" s="0"/>
-      <c r="H1330" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553110</t>
+        </is>
+      </c>
+      <c r="G1330" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1330" s="0" t="inlineStr">
+        <is>
+          <t>Baseline pneumatic bulb dynamometer/pinch gauge combo . Adjustable dynamometer/pinch gauge measures both grip and pinch strength. Comes with three different sized interchangeable s...</t>
+        </is>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="0" t="inlineStr">
@@ -32004,18 +34404,30 @@
           <t>10-5610</t>
         </is>
       </c>
-      <c r="C1335" s="0"/>
+      <c r="C1335" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXERCISE BAND,TAN,6 YD</t>
+        </is>
+      </c>
       <c r="D1335" s="0" t="n">
         <v>10.05</v>
       </c>
-      <c r="E1335" s="0"/>
+      <c r="E1335" s="0" t="n">
+        <v>5.62</v>
+      </c>
       <c r="F1335" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1335" s="0"/>
-      <c r="H1335" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052570</t>
+        </is>
+      </c>
+      <c r="G1335" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1335" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, tan, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily identifi...</t>
+        </is>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="0" t="inlineStr">
@@ -32028,18 +34440,30 @@
           <t>10-5611</t>
         </is>
       </c>
-      <c r="C1336" s="0"/>
+      <c r="C1336" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,YELLOW,6 YD</t>
+        </is>
+      </c>
       <c r="D1336" s="0" t="n">
         <v>11.01</v>
       </c>
-      <c r="E1336" s="0"/>
+      <c r="E1336" s="0" t="n">
+        <v>6.42</v>
+      </c>
       <c r="F1336" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1336" s="0"/>
-      <c r="H1336" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052515</t>
+        </is>
+      </c>
+      <c r="G1336" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1336" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, yellow, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily ident...</t>
+        </is>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="0" t="inlineStr">
@@ -32052,18 +34476,30 @@
           <t>10-5612</t>
         </is>
       </c>
-      <c r="C1337" s="0"/>
+      <c r="C1337" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXERCISE BAND,RED,6 YD</t>
+        </is>
+      </c>
       <c r="D1337" s="0" t="n">
         <v>11.96</v>
       </c>
-      <c r="E1337" s="0"/>
+      <c r="E1337" s="0" t="n">
+        <v>9.24</v>
+      </c>
       <c r="F1337" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1337" s="0"/>
-      <c r="H1337" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052584</t>
+        </is>
+      </c>
+      <c r="G1337" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1337" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, red, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily identifi...</t>
+        </is>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="0" t="inlineStr">
@@ -32076,18 +34512,30 @@
           <t>10-5613</t>
         </is>
       </c>
-      <c r="C1338" s="0"/>
+      <c r="C1338" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,GREEN,6 YD</t>
+        </is>
+      </c>
       <c r="D1338" s="0" t="n">
         <v>12.91</v>
       </c>
-      <c r="E1338" s="0"/>
+      <c r="E1338" s="0" t="n">
+        <v>10.04</v>
+      </c>
       <c r="F1338" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1338" s="0"/>
-      <c r="H1338" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052539</t>
+        </is>
+      </c>
+      <c r="G1338" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1338" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, green, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily identi...</t>
+        </is>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="0" t="inlineStr">
@@ -32100,18 +34548,30 @@
           <t>10-5614</t>
         </is>
       </c>
-      <c r="C1339" s="0"/>
+      <c r="C1339" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXERCISE BAND,BLUE,6 YD</t>
+        </is>
+      </c>
       <c r="D1339" s="0" t="n">
         <v>13.88</v>
       </c>
-      <c r="E1339" s="0"/>
+      <c r="E1339" s="0" t="n">
+        <v>10.85</v>
+      </c>
       <c r="F1339" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1339" s="0"/>
-      <c r="H1339" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052623</t>
+        </is>
+      </c>
+      <c r="G1339" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1339" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, blue, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily identif...</t>
+        </is>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="0" t="inlineStr">
@@ -32124,18 +34584,30 @@
           <t>10-5615</t>
         </is>
       </c>
-      <c r="C1340" s="0"/>
+      <c r="C1340" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,BLACK,6 YD</t>
+        </is>
+      </c>
       <c r="D1340" s="0" t="n">
         <v>14.83</v>
       </c>
-      <c r="E1340" s="0"/>
+      <c r="E1340" s="0" t="n">
+        <v>11.65</v>
+      </c>
       <c r="F1340" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1340" s="0"/>
-      <c r="H1340" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000023052549</t>
+        </is>
+      </c>
+      <c r="G1340" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1340" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, black, 6 yard, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easily identi...</t>
+        </is>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="0" t="inlineStr">
@@ -32148,18 +34620,30 @@
           <t>10-5620</t>
         </is>
       </c>
-      <c r="C1341" s="0"/>
+      <c r="C1341" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,TAN,50YD</t>
+        </is>
+      </c>
       <c r="D1341" s="0" t="n">
         <v>69.39</v>
       </c>
-      <c r="E1341" s="0"/>
+      <c r="E1341" s="0" t="n">
+        <v>48.23</v>
+      </c>
       <c r="F1341" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1341" s="0"/>
-      <c r="H1341" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556946</t>
+        </is>
+      </c>
+      <c r="G1341" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1341" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, tan, 50 yard dispenser, latex-free . Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is eas...</t>
+        </is>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="0" t="inlineStr">
@@ -32172,18 +34656,30 @@
           <t>10-5621</t>
         </is>
       </c>
-      <c r="C1342" s="0"/>
+      <c r="C1342" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,YEL,50YD</t>
+        </is>
+      </c>
       <c r="D1342" s="0" t="n">
         <v>76.56</v>
       </c>
-      <c r="E1342" s="0"/>
+      <c r="E1342" s="0" t="n">
+        <v>54.26</v>
+      </c>
       <c r="F1342" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1342" s="0"/>
-      <c r="H1342" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000001669828</t>
+        </is>
+      </c>
+      <c r="G1342" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1342" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, yellow, 50 yard dispenser, latex-free . Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is ...</t>
+        </is>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="0" t="inlineStr">
@@ -32196,18 +34692,30 @@
           <t>10-5622</t>
         </is>
       </c>
-      <c r="C1343" s="0"/>
+      <c r="C1343" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,RED,50YD</t>
+        </is>
+      </c>
       <c r="D1343" s="0" t="n">
         <v>83.74</v>
       </c>
-      <c r="E1343" s="0"/>
+      <c r="E1343" s="0" t="n">
+        <v>58.28</v>
+      </c>
       <c r="F1343" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1343" s="0"/>
-      <c r="H1343" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000001669829</t>
+        </is>
+      </c>
+      <c r="G1343" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1343" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, red, 50 yard dispenser, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is easi...</t>
+        </is>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="0" t="inlineStr">
@@ -32220,18 +34728,30 @@
           <t>10-5623</t>
         </is>
       </c>
-      <c r="C1344" s="0"/>
+      <c r="C1344" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,GRN,50YD</t>
+        </is>
+      </c>
       <c r="D1344" s="0" t="n">
         <v>90.91</v>
       </c>
-      <c r="E1344" s="0"/>
+      <c r="E1344" s="0" t="n">
+        <v>62.3</v>
+      </c>
       <c r="F1344" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1344" s="0"/>
-      <c r="H1344" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000001669830</t>
+        </is>
+      </c>
+      <c r="G1344" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1344" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, green, 50 yard dispenser, latex-free . Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is e...</t>
+        </is>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="0" t="inlineStr">
@@ -32244,18 +34764,30 @@
           <t>10-5624</t>
         </is>
       </c>
-      <c r="C1345" s="0"/>
+      <c r="C1345" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,BL,50YDDISP.</t>
+        </is>
+      </c>
       <c r="D1345" s="0" t="n">
         <v>98.09</v>
       </c>
-      <c r="E1345" s="0"/>
+      <c r="E1345" s="0" t="n">
+        <v>66.32</v>
+      </c>
       <c r="F1345" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1345" s="0"/>
-      <c r="H1345" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000001669831</t>
+        </is>
+      </c>
+      <c r="G1345" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1345" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, blue, 50 yard dispenser, latex-free. Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is eas...</t>
+        </is>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="0" t="inlineStr">
@@ -32268,18 +34800,30 @@
           <t>10-5625</t>
         </is>
       </c>
-      <c r="C1346" s="0"/>
+      <c r="C1346" s="0" t="inlineStr">
+        <is>
+          <t>CANDO LATEX-FREE EXER. BAND,BLK,50YD</t>
+        </is>
+      </c>
       <c r="D1346" s="0" t="n">
         <v>105.27</v>
       </c>
-      <c r="E1346" s="0"/>
+      <c r="E1346" s="0" t="n">
+        <v>72.35</v>
+      </c>
       <c r="F1346" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1346" s="0"/>
-      <c r="H1346" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000001669832</t>
+        </is>
+      </c>
+      <c r="G1346" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1346" s="0" t="inlineStr">
+        <is>
+          <t>Cando exercise band, black, 50 yard dispenser, latex-free . Cando No-Latex Band is specially formulated to mimic the stretch characteristics of latex band. No-Latex Cando band is e...</t>
+        </is>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="0" t="inlineStr">
@@ -32724,18 +35268,30 @@
           <t>30-2310r</t>
         </is>
       </c>
-      <c r="C1365" s="0"/>
+      <c r="C1365" s="0" t="inlineStr">
+        <is>
+          <t>CANDO EXER. MAT,26"X72"X0.6",RED</t>
+        </is>
+      </c>
       <c r="D1365" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E1365" s="0"/>
+      <c r="E1365" s="0" t="n">
+        <v>49.71</v>
+      </c>
       <c r="F1365" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1365" s="0"/>
-      <c r="H1365" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554865</t>
+        </is>
+      </c>
+      <c r="G1365" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1365" s="0" t="inlineStr">
+        <is>
+          <t>Cando closed cell exercise mat, 26"x72"x0.6", red. Cando exercise mats offer superior comfort, quality and durability, yet are lightweight and sturdy enough for commercial use in h...</t>
+        </is>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="0" t="inlineStr">
@@ -32748,18 +35304,30 @@
           <t>30-2310g</t>
         </is>
       </c>
-      <c r="C1366" s="0"/>
+      <c r="C1366" s="0" t="inlineStr">
+        <is>
+          <t>CANDO EXER. MAT,26"X72"X0.6",GRN</t>
+        </is>
+      </c>
       <c r="D1366" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E1366" s="0"/>
+      <c r="E1366" s="0" t="n">
+        <v>49.71</v>
+      </c>
       <c r="F1366" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1366" s="0"/>
-      <c r="H1366" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556443</t>
+        </is>
+      </c>
+      <c r="G1366" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1366" s="0" t="inlineStr">
+        <is>
+          <t>Cando closed cell exercise mat, 26"x72"x0.6", green. Cando exercise mats offer superior comfort, quality and durability, yet are lightweight and sturdy enough for commercial use in...</t>
+        </is>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="0" t="inlineStr">
@@ -32772,18 +35340,30 @@
           <t>30-2310b</t>
         </is>
       </c>
-      <c r="C1367" s="0"/>
+      <c r="C1367" s="0" t="inlineStr">
+        <is>
+          <t>CANDO CLOSED CELL EXER. MAT,26",BLUE</t>
+        </is>
+      </c>
       <c r="D1367" s="0" t="n">
         <v>71.78</v>
       </c>
-      <c r="E1367" s="0"/>
+      <c r="E1367" s="0" t="n">
+        <v>49.71</v>
+      </c>
       <c r="F1367" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1367" s="0"/>
-      <c r="H1367" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556719</t>
+        </is>
+      </c>
+      <c r="G1367" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1367" s="0" t="inlineStr">
+        <is>
+          <t>Cando closed cell exercise mat, 26"x72"x0.6", blue. Cando exercise mats offer superior comfort, quality and durability, yet are lightweight and sturdy enough for commercial use in ...</t>
+        </is>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="0" t="inlineStr">
@@ -32796,18 +35376,30 @@
           <t>10-0577</t>
         </is>
       </c>
-      <c r="C1368" s="0"/>
+      <c r="C1368" s="0" t="inlineStr">
+        <is>
+          <t>DUMBBELL RACK,FLOOR MODEL,10 PAIR CAP.</t>
+        </is>
+      </c>
       <c r="D1368" s="0" t="n">
         <v>95.7</v>
       </c>
-      <c r="E1368" s="0"/>
+      <c r="E1368" s="0" t="n">
+        <v>74.52</v>
+      </c>
       <c r="F1368" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1368" s="0"/>
-      <c r="H1368" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554958</t>
+        </is>
+      </c>
+      <c r="G1368" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1368" s="0" t="inlineStr">
+        <is>
+          <t>dumbell rack, floor model, 10 pair capacity</t>
+        </is>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="0" t="inlineStr">
@@ -34116,18 +36708,30 @@
           <t>10-1103</t>
         </is>
       </c>
-      <c r="C1423" s="0"/>
+      <c r="C1423" s="0" t="inlineStr">
+        <is>
+          <t>CANDO WOBBLE BOARD,CIRCULAR W/2" BALL</t>
+        </is>
+      </c>
       <c r="D1423" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E1423" s="0"/>
+      <c r="E1423" s="0" t="n">
+        <v>27.13</v>
+      </c>
       <c r="F1423" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1423" s="0"/>
-      <c r="H1423" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557438</t>
+        </is>
+      </c>
+      <c r="G1423" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1423" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance board, circular with 2" ball, intermediate. Use the hvy.-duty Cando balance board to strengthen and condition lower body. Perfect for vestibular training. Improve ank...</t>
+        </is>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="0" t="inlineStr">
@@ -34140,18 +36744,30 @@
           <t>10-1099</t>
         </is>
       </c>
-      <c r="C1424" s="0"/>
+      <c r="C1424" s="0" t="inlineStr">
+        <is>
+          <t>CANDO WOBBLE BOARD,CIRCULAR W/3" BALL</t>
+        </is>
+      </c>
       <c r="D1424" s="0" t="n">
         <v>38.28</v>
       </c>
-      <c r="E1424" s="0"/>
+      <c r="E1424" s="0" t="n">
+        <v>27.13</v>
+      </c>
       <c r="F1424" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1424" s="0"/>
-      <c r="H1424" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556819</t>
+        </is>
+      </c>
+      <c r="G1424" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1424" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance board, circular with 3" ball, advanced. Use the hvy.-duty Cando balance board to strengthen and condition lower body. Perfect for vestibular training.</t>
+        </is>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="0" t="inlineStr">
@@ -34164,18 +36780,30 @@
           <t>10-1100</t>
         </is>
       </c>
-      <c r="C1425" s="0"/>
+      <c r="C1425" s="0" t="inlineStr">
+        <is>
+          <t>CANDO ROCKER BOARD, EASY 2"</t>
+        </is>
+      </c>
       <c r="D1425" s="0" t="n">
         <v>31.11</v>
       </c>
-      <c r="E1425" s="0"/>
+      <c r="E1425" s="0" t="n">
+        <v>19.89</v>
+      </c>
       <c r="F1425" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1425" s="0"/>
-      <c r="H1425" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556820</t>
+        </is>
+      </c>
+      <c r="G1425" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1425" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance board, basic, 2" flat bottom. Use the hvy.-duty Cando balance board to strengthen and condition lower body.</t>
+        </is>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="0" t="inlineStr">
@@ -34692,18 +37320,30 @@
           <t>30-2161</t>
         </is>
       </c>
-      <c r="C1447" s="0"/>
+      <c r="C1447" s="0" t="inlineStr">
+        <is>
+          <t>CANDO INSTABILITY PAD,CIRCULAR,20" DIA.</t>
+        </is>
+      </c>
       <c r="D1447" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1447" s="0"/>
+      <c r="E1447" s="0" t="n">
+        <v>36.15</v>
+      </c>
       <c r="F1447" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1447" s="0"/>
-      <c r="H1447" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555730</t>
+        </is>
+      </c>
+      <c r="G1447" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1447" s="0" t="inlineStr">
+        <is>
+          <t>Cando Instability pad, x-easy, yellow, circular 20". Each pad in the series of 5 Progressive Balance Pads has a different level of "give" and offers a different vestibular challeng...</t>
+        </is>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="0" t="inlineStr">
@@ -34716,18 +37356,30 @@
           <t>30-2162</t>
         </is>
       </c>
-      <c r="C1448" s="0"/>
+      <c r="C1448" s="0" t="inlineStr">
+        <is>
+          <t>CANDO INSTABILITY PAD,CIRCULAR,20" DIA.,</t>
+        </is>
+      </c>
       <c r="D1448" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1448" s="0"/>
+      <c r="E1448" s="0" t="n">
+        <v>36.15</v>
+      </c>
       <c r="F1448" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1448" s="0"/>
-      <c r="H1448" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553827</t>
+        </is>
+      </c>
+      <c r="G1448" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1448" s="0" t="inlineStr">
+        <is>
+          <t>Cando instability pad, easy, red, circular 20". Each pad in the series of 5 Progressive Balance Pads has a different level of "give" and offers a different vestibular challenge.</t>
+        </is>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="0" t="inlineStr">
@@ -34740,18 +37392,30 @@
           <t>30-2163</t>
         </is>
       </c>
-      <c r="C1449" s="0"/>
+      <c r="C1449" s="0" t="inlineStr">
+        <is>
+          <t>CANDO INSTABILITY PAD,CIRCULAR,20" DIA.</t>
+        </is>
+      </c>
       <c r="D1449" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1449" s="0"/>
+      <c r="E1449" s="0" t="n">
+        <v>36.15</v>
+      </c>
       <c r="F1449" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1449" s="0"/>
-      <c r="H1449" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554858</t>
+        </is>
+      </c>
+      <c r="G1449" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1449" s="0" t="inlineStr">
+        <is>
+          <t>Cando instability pad, moderate, green, circular 20". Each pad in the series of 5 Progressive Balance Pads has a different level of "give" and offers a different vestibular challen...</t>
+        </is>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="0" t="inlineStr">
@@ -34764,18 +37428,30 @@
           <t>30-2164</t>
         </is>
       </c>
-      <c r="C1450" s="0"/>
+      <c r="C1450" s="0" t="inlineStr">
+        <is>
+          <t>CANDO INSTABILITY PAD,CIRCULAR,20" DIA.,</t>
+        </is>
+      </c>
       <c r="D1450" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1450" s="0"/>
+      <c r="E1450" s="0" t="n">
+        <v>36.15</v>
+      </c>
       <c r="F1450" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1450" s="0"/>
-      <c r="H1450" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553176</t>
+        </is>
+      </c>
+      <c r="G1450" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1450" s="0" t="inlineStr">
+        <is>
+          <t>Cando instability pad, difficult, blue, circular 20". Each pad in the series of 5 Progressive Balance Pads has a different level of "give" and offers a different vestibular challen...</t>
+        </is>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="0" t="inlineStr">
@@ -34788,18 +37464,30 @@
           <t>30-2165</t>
         </is>
       </c>
-      <c r="C1451" s="0"/>
+      <c r="C1451" s="0" t="inlineStr">
+        <is>
+          <t>CANDO INSTABILITY PAD,CIRCULAR,20" DIA.</t>
+        </is>
+      </c>
       <c r="D1451" s="0" t="n">
         <v>47.85</v>
       </c>
-      <c r="E1451" s="0"/>
+      <c r="E1451" s="0" t="n">
+        <v>36.15</v>
+      </c>
       <c r="F1451" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1451" s="0"/>
-      <c r="H1451" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555325</t>
+        </is>
+      </c>
+      <c r="G1451" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1451" s="0" t="inlineStr">
+        <is>
+          <t>Cando instability pad, x-difficult, black, circular 20". Each pad in the series of 5 Progressive Balance Pads has a different level of "give" and offers a different vestibular chal...</t>
+        </is>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="0" t="inlineStr">
@@ -34812,18 +37500,30 @@
           <t>30-2166</t>
         </is>
       </c>
-      <c r="C1452" s="0"/>
+      <c r="C1452" s="0" t="inlineStr">
+        <is>
+          <t>CANDO INSTABILITY PAD,CIRCULAR,20" DIA.</t>
+        </is>
+      </c>
       <c r="D1452" s="0" t="n">
         <v>227.29</v>
       </c>
-      <c r="E1452" s="0"/>
+      <c r="E1452" s="0" t="n">
+        <v>171.76</v>
+      </c>
       <c r="F1452" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1452" s="0"/>
-      <c r="H1452" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554726</t>
+        </is>
+      </c>
+      <c r="G1452" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1452" s="0" t="inlineStr">
+        <is>
+          <t>Cando instability pad, 5-piece set (Y,R,G,B,BLK), circular 20"</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="0" t="inlineStr">
@@ -34836,18 +37536,30 @@
           <t>30-2120B</t>
         </is>
       </c>
-      <c r="C1453" s="0"/>
+      <c r="C1453" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BALANCE PAD,CIRCULAR,20" DIA.,2"</t>
+        </is>
+      </c>
       <c r="D1453" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1453" s="0"/>
+      <c r="E1453" s="0" t="n">
+        <v>31.63</v>
+      </c>
       <c r="F1453" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1453" s="0"/>
-      <c r="H1453" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053555725</t>
+        </is>
+      </c>
+      <c r="G1453" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1453" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance pad, circular, 20" diameter 2" thick, blue. Designed to be the most effective and functional pad for low impact aerobic exercises and group classes. Both top and bott...</t>
+        </is>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="0" t="inlineStr">
@@ -34860,18 +37572,30 @@
           <t>30-2120BLK</t>
         </is>
       </c>
-      <c r="C1454" s="0"/>
+      <c r="C1454" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BALANCE PAD,CIRCULAR,20" DIA.,2"</t>
+        </is>
+      </c>
       <c r="D1454" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1454" s="0"/>
+      <c r="E1454" s="0" t="n">
+        <v>31.63</v>
+      </c>
       <c r="F1454" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1454" s="0"/>
-      <c r="H1454" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553819</t>
+        </is>
+      </c>
+      <c r="G1454" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1454" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance pad, circular, 20" diameter 2" thick, black. Designed to be the most effective and functional pad for low impact aerobic exercises and group classes. Both top and bot...</t>
+        </is>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="0" t="inlineStr">
@@ -34884,18 +37608,30 @@
           <t>30-2120G</t>
         </is>
       </c>
-      <c r="C1455" s="0"/>
+      <c r="C1455" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BALANCE PAD,CIRCULAR,20" DIA.,2"</t>
+        </is>
+      </c>
       <c r="D1455" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1455" s="0"/>
+      <c r="E1455" s="0" t="n">
+        <v>31.63</v>
+      </c>
       <c r="F1455" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1455" s="0"/>
-      <c r="H1455" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053554850</t>
+        </is>
+      </c>
+      <c r="G1455" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1455" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance pad, circular, 20" diameter 2" thick, green. Designed to be the most effective and functional pad for low impact aerobic exercises and group classes. Both top and bot...</t>
+        </is>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="0" t="inlineStr">
@@ -34908,18 +37644,30 @@
           <t>30-2120R</t>
         </is>
       </c>
-      <c r="C1456" s="0"/>
+      <c r="C1456" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BALANCE PAD,CIRCULAR,20" DIA.,2"</t>
+        </is>
+      </c>
       <c r="D1456" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1456" s="0"/>
+      <c r="E1456" s="0" t="n">
+        <v>31.63</v>
+      </c>
       <c r="F1456" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1456" s="0"/>
-      <c r="H1456" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553820</t>
+        </is>
+      </c>
+      <c r="G1456" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1456" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance pad, circular, 20" diameter 2" thick, red. Designed to be the most effective and functional pad for low impact aerobic exercises and group classes. Both top and botto...</t>
+        </is>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="0" t="inlineStr">
@@ -34932,18 +37680,30 @@
           <t>30-2120Y</t>
         </is>
       </c>
-      <c r="C1457" s="0"/>
+      <c r="C1457" s="0" t="inlineStr">
+        <is>
+          <t>CANDO BALANCE PAD,CIRCULAR,20" DIA.,2"</t>
+        </is>
+      </c>
       <c r="D1457" s="0" t="n">
         <v>43.07</v>
       </c>
-      <c r="E1457" s="0"/>
+      <c r="E1457" s="0" t="n">
+        <v>31.63</v>
+      </c>
       <c r="F1457" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1457" s="0"/>
-      <c r="H1457" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553173</t>
+        </is>
+      </c>
+      <c r="G1457" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1457" s="0" t="inlineStr">
+        <is>
+          <t>Cando balance pad, circular, 20" diameter 2" thick, yellow. Designed to be the most effective and functional pad for low impact aerobic exercises and group classes. Both top and bo...</t>
+        </is>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="0" t="inlineStr">
@@ -35004,18 +37764,30 @@
           <t>12-3502</t>
         </is>
       </c>
-      <c r="C1460" s="0"/>
+      <c r="C1460" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE VOLUMETRIC DEVICE,FOOT SET</t>
+        </is>
+      </c>
       <c r="D1460" s="0" t="n">
         <v>215.33</v>
       </c>
-      <c r="E1460" s="0"/>
+      <c r="E1460" s="0" t="n">
+        <v>162.8</v>
+      </c>
       <c r="F1460" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1460" s="0"/>
-      <c r="H1460" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053557047</t>
+        </is>
+      </c>
+      <c r="G1460" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1460" s="0" t="inlineStr">
+        <is>
+          <t>Baseline volumetric measuring device, foot set, 5x13x9 inches. The volumeter is designed to objectively measure volume of the body part by using the fluid displacement method. The ...</t>
+        </is>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="0" t="inlineStr">
@@ -35220,18 +37992,30 @@
           <t>12-0342</t>
         </is>
       </c>
-      <c r="C1469" s="0"/>
+      <c r="C1469" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 250LB./112.5KG PUSH-PULL DYNA.</t>
+        </is>
+      </c>
       <c r="D1469" s="0" t="n">
         <v>1052.69</v>
       </c>
-      <c r="E1469" s="0"/>
+      <c r="E1469" s="0" t="n">
+        <v>795.53</v>
+      </c>
       <c r="F1469" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1469" s="0"/>
-      <c r="H1469" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053556005</t>
+        </is>
+      </c>
+      <c r="G1469" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1469" s="0" t="inlineStr">
+        <is>
+          <t>Baseline 250lb./112.5kg push-pull electronic dynamometer w/ 3-pads, 1-hook, and case. The Baseline electronic push-pull dynamometer uses state-of-the-art load -cell technology to a...</t>
+        </is>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="0" t="inlineStr">
@@ -35388,18 +38172,30 @@
           <t>12-0388</t>
         </is>
       </c>
-      <c r="C1476" s="0"/>
+      <c r="C1476" s="0" t="inlineStr">
+        <is>
+          <t>BASELINE 500LB. UNIVERSAL PUSH-PULL DYNA</t>
+        </is>
+      </c>
       <c r="D1476" s="0" t="n">
         <v>693.82</v>
       </c>
-      <c r="E1476" s="0"/>
+      <c r="E1476" s="0" t="n">
+        <v>578.87</v>
+      </c>
       <c r="F1476" s="0" t="inlineStr">
         <is>
-          <t>https://gsaadvantage.gov</t>
-        </is>
-      </c>
-      <c r="G1476" s="0"/>
-      <c r="H1476" s="0"/>
+          <t>https://gsaadvantage.gov/advantage/catalog/product_detail.do?gsin=11000053553728</t>
+        </is>
+      </c>
+      <c r="G1476" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1476" s="0" t="inlineStr">
+        <is>
+          <t>Baseline 500lb. universal push-pull dynamometer. The hvy.-duty dynamometer features the hydraulic system that is used in the industry accepted Baseline and Jamar hand dynamometers ...</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="0" t="inlineStr">
